--- a/FilesOrganizerIDOffice/src/main/resources/una/filesorganizeridoffice/xlsx/Formato de Corte Funcionarios.xlsx
+++ b/FilesOrganizerIDOffice/src/main/resources/una/filesorganizeridoffice/xlsx/Formato de Corte Funcionarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N00148095\Desktop\Git\FileOrganizator\FilesOrganizatorIDOffice\src\main\resources\una\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N00148095\Desktop\Git\FileOrganizer\FilesOrganizerIDOffice\src\main\resources\una\filesorganizeridoffice\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3A3748-8C7C-4E2D-AF47-2C9CCA6B16AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2EFC7A-DE25-42F6-9BB6-78F2A6913513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="103">
   <si>
     <t>Lista de planillas</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>FORMATO TXT</t>
-  </si>
-  <si>
-    <t>014</t>
   </si>
   <si>
     <t>014,3,117660919,117660919,311401</t>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>Identificacion</t>
+  </si>
+  <si>
+    <t>Tiene Cuenta</t>
   </si>
 </sst>
 </file>
@@ -914,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V999"/>
+  <dimension ref="A1:W999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:V251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -944,10 +944,11 @@
     <col min="20" max="20" width="9.85546875" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="32.42578125" customWidth="1"/>
-    <col min="23" max="27" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75">
+    <row r="1" spans="1:23" ht="15.75">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -975,7 +976,7 @@
       <c r="U1" s="51"/>
       <c r="V1" s="52"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
@@ -1028,7 +1029,7 @@
         <v>17</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>18</v>
@@ -1037,13 +1038,16 @@
         <v>19</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1063,22 +1067,23 @@
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
       <c r="S3" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T3" s="15">
-        <f t="shared" ref="T3:T251" si="0">+IF(D3="Cedula de Identidad",1,3)</f>
-        <v>3</v>
+        <f>+IF(D3="Cedula de Identidad",1,1)</f>
+        <v>1</v>
       </c>
       <c r="U3" s="16">
-        <f t="shared" ref="U3:U251" si="1">+R3</f>
+        <f t="shared" ref="U3:U251" si="0">+R3</f>
         <v>0</v>
       </c>
       <c r="V3" s="15" t="str">
-        <f t="shared" ref="V3:V251" si="2">+CONCATENATE(S3,",",T3,",",E3,",",E3,",",U3)</f>
-        <v>015,3,,,0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <f t="shared" ref="V3:V251" si="1">+CONCATENATE(S3,",",T3,",",E3,",",E3,",",U3)</f>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W3" s="10"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1097,12 +1102,24 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="15"/>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="S4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T4" s="15">
+        <f t="shared" ref="T4:T67" si="2">+IF(D4="Cedula de Identidad",1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1121,12 +1138,24 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="13"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="15"/>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="S5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T5" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1145,12 +1174,24 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="13"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="15"/>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="S6" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T6" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1169,12 +1210,24 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="13"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="15"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="S7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T7" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1193,12 +1246,24 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="13"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="15"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="S8" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T8" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U8" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W8" s="10"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1217,12 +1282,24 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="13"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="15"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="S9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1241,12 +1318,24 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="15"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="S10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T10" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1265,12 +1354,24 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="15"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="S11" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1289,12 +1390,24 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="15"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="S12" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T12" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1313,12 +1426,24 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="15"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="S13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T13" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1337,12 +1462,24 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="15"/>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="S14" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T14" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1361,12 +1498,24 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="15"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="S15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1385,12 +1534,24 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="15"/>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="S16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T16" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1409,12 +1570,24 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="13"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="15"/>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="S17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T17" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1433,12 +1606,24 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="15"/>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="S18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T18" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1457,12 +1642,24 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="15"/>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1">
+      <c r="S19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T19" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W19" s="10"/>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1481,12 +1678,24 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="13"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="15"/>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1">
+      <c r="S20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W20" s="10"/>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1505,12 +1714,24 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="13"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="15"/>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1">
+      <c r="S21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T21" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W21" s="10"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
@@ -1529,12 +1750,24 @@
       <c r="P22" s="46"/>
       <c r="Q22" s="47"/>
       <c r="R22" s="13"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="15"/>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1">
+      <c r="S22" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T22" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U22" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W22" s="45"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -1553,12 +1786,24 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="13"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="15"/>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1">
+      <c r="S23" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T23" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W23" s="22"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
@@ -1578,22 +1823,23 @@
       <c r="Q24" s="47"/>
       <c r="R24" s="42"/>
       <c r="S24" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T24" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U24" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="U24" s="16">
+        <v>0</v>
+      </c>
+      <c r="V24" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1">
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W24" s="45"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -1613,22 +1859,23 @@
       <c r="Q25" s="12"/>
       <c r="R25" s="13"/>
       <c r="S25" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T25" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U25" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="U25" s="16">
+        <v>0</v>
+      </c>
+      <c r="V25" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1">
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W25" s="23"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -1648,22 +1895,23 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="13"/>
       <c r="S26" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T26" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U26" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="U26" s="16">
+        <v>0</v>
+      </c>
+      <c r="V26" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1">
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W26" s="10"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -1683,22 +1931,23 @@
       <c r="Q27" s="12"/>
       <c r="R27" s="13"/>
       <c r="S27" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T27" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U27" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="U27" s="16">
+        <v>0</v>
+      </c>
+      <c r="V27" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1">
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W27" s="23"/>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" customHeight="1">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -1718,22 +1967,23 @@
       <c r="Q28" s="12"/>
       <c r="R28" s="13"/>
       <c r="S28" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T28" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U28" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="U28" s="16">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1">
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W28" s="23"/>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
@@ -1753,22 +2003,23 @@
       <c r="Q29" s="47"/>
       <c r="R29" s="42"/>
       <c r="S29" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T29" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U29" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="U29" s="16">
+        <v>0</v>
+      </c>
+      <c r="V29" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1">
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W29" s="45"/>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
@@ -1788,22 +2039,23 @@
       <c r="Q30" s="47"/>
       <c r="R30" s="42"/>
       <c r="S30" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T30" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U30" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U30:U93" si="3">+R30</f>
         <v>0</v>
       </c>
       <c r="V30" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" ref="V30:V93" si="4">+CONCATENATE(S30,",",T30,",",E30,",",E30,",",U30)</f>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W30" s="24"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
@@ -1823,22 +2075,23 @@
       <c r="Q31" s="47"/>
       <c r="R31" s="42"/>
       <c r="S31" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T31" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U31" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V31" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W31" s="45"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -1858,22 +2111,23 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="13"/>
       <c r="S32" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T32" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V32" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W32" s="10"/>
+    </row>
+    <row r="33" spans="1:23" ht="15.75" customHeight="1">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -1893,22 +2147,23 @@
       <c r="Q33" s="12"/>
       <c r="R33" s="13"/>
       <c r="S33" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T33" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U33" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V33" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W33" s="10"/>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -1928,22 +2183,23 @@
       <c r="Q34" s="12"/>
       <c r="R34" s="13"/>
       <c r="S34" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T34" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U34" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V34" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W34" s="10"/>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -1963,22 +2219,23 @@
       <c r="Q35" s="47"/>
       <c r="R35" s="42"/>
       <c r="S35" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U35" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V35" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W35" s="45"/>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" customHeight="1">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -1998,22 +2255,23 @@
       <c r="Q36" s="26"/>
       <c r="R36" s="27"/>
       <c r="S36" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T36" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U36" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V36" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W36" s="29"/>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" customHeight="1">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
@@ -2033,22 +2291,23 @@
       <c r="Q37" s="26"/>
       <c r="R37" s="27"/>
       <c r="S37" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V37" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W37" s="29"/>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" customHeight="1">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -2068,22 +2327,23 @@
       <c r="Q38" s="17"/>
       <c r="R38" s="32"/>
       <c r="S38" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T38" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U38" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V38" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W38" s="29"/>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" customHeight="1">
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -2103,22 +2363,23 @@
       <c r="Q39" s="33"/>
       <c r="R39" s="32"/>
       <c r="S39" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T39" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V39" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W39" s="34"/>
+    </row>
+    <row r="40" spans="1:23" ht="15.75" customHeight="1">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
@@ -2138,22 +2399,23 @@
       <c r="Q40" s="26"/>
       <c r="R40" s="27"/>
       <c r="S40" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V40" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W40" s="29"/>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" customHeight="1">
       <c r="A41" s="33"/>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -2173,22 +2435,23 @@
       <c r="Q41" s="33"/>
       <c r="R41" s="32"/>
       <c r="S41" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T41" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U41" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V41" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W41" s="34"/>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" customHeight="1">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -2208,22 +2471,23 @@
       <c r="Q42" s="26"/>
       <c r="R42" s="27"/>
       <c r="S42" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T42" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U42" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V42" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W42" s="29"/>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" customHeight="1">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
@@ -2243,22 +2507,23 @@
       <c r="Q43" s="26"/>
       <c r="R43" s="27"/>
       <c r="S43" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T43" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V43" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W43" s="29"/>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
@@ -2278,22 +2543,23 @@
       <c r="Q44" s="26"/>
       <c r="R44" s="27"/>
       <c r="S44" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V44" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W44" s="29"/>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" customHeight="1">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -2313,22 +2579,23 @@
       <c r="Q45" s="26"/>
       <c r="R45" s="27"/>
       <c r="S45" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T45" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U45" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V45" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W45" s="29"/>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" customHeight="1">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
@@ -2348,22 +2615,23 @@
       <c r="Q46" s="26"/>
       <c r="R46" s="27"/>
       <c r="S46" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T46" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U46" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V46" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W46" s="29"/>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" customHeight="1">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
@@ -2383,22 +2651,23 @@
       <c r="Q47" s="26"/>
       <c r="R47" s="27"/>
       <c r="S47" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T47" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V47" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W47" s="29"/>
+    </row>
+    <row r="48" spans="1:23" ht="15.75" customHeight="1">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
@@ -2418,22 +2687,23 @@
       <c r="Q48" s="26"/>
       <c r="R48" s="27"/>
       <c r="S48" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T48" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U48" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V48" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W48" s="29"/>
+    </row>
+    <row r="49" spans="1:23" ht="15.75" customHeight="1">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
@@ -2453,22 +2723,23 @@
       <c r="Q49" s="26"/>
       <c r="R49" s="27"/>
       <c r="S49" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T49" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U49" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V49" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W49" s="29"/>
+    </row>
+    <row r="50" spans="1:23" ht="15.75" customHeight="1">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -2488,22 +2759,23 @@
       <c r="Q50" s="33"/>
       <c r="R50" s="32"/>
       <c r="S50" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T50" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U50" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V50" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W50" s="34"/>
+    </row>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1">
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -2523,22 +2795,23 @@
       <c r="Q51" s="33"/>
       <c r="R51" s="32"/>
       <c r="S51" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T51" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U51" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V51" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W51" s="34"/>
+    </row>
+    <row r="52" spans="1:23" ht="15.75" customHeight="1">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
@@ -2558,22 +2831,23 @@
       <c r="Q52" s="26"/>
       <c r="R52" s="27"/>
       <c r="S52" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T52" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U52" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V52" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W52" s="29"/>
+    </row>
+    <row r="53" spans="1:23" ht="15.75" customHeight="1">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
@@ -2593,22 +2867,23 @@
       <c r="Q53" s="26"/>
       <c r="R53" s="27"/>
       <c r="S53" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T53" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U53" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V53" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W53" s="29"/>
+    </row>
+    <row r="54" spans="1:23" ht="15.75" customHeight="1">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -2628,22 +2903,23 @@
       <c r="Q54" s="17"/>
       <c r="R54" s="30"/>
       <c r="S54" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T54" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U54" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V54" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W54" s="29"/>
+    </row>
+    <row r="55" spans="1:23" ht="15.75" customHeight="1">
       <c r="A55" s="26"/>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
@@ -2663,22 +2939,23 @@
       <c r="Q55" s="26"/>
       <c r="R55" s="32"/>
       <c r="S55" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T55" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U55" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V55" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W55" s="29"/>
+    </row>
+    <row r="56" spans="1:23" ht="15.75" customHeight="1">
       <c r="A56" s="33"/>
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
@@ -2698,22 +2975,23 @@
       <c r="Q56" s="33"/>
       <c r="R56" s="32"/>
       <c r="S56" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T56" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U56" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V56" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W56" s="34"/>
+    </row>
+    <row r="57" spans="1:23" ht="15.75" customHeight="1">
       <c r="A57" s="33"/>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
@@ -2733,22 +3011,23 @@
       <c r="Q57" s="33"/>
       <c r="R57" s="32"/>
       <c r="S57" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T57" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U57" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V57" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W57" s="34"/>
+    </row>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
@@ -2768,22 +3047,23 @@
       <c r="Q58" s="36"/>
       <c r="R58" s="37"/>
       <c r="S58" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T58" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U58" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V58" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W58" s="36"/>
+    </row>
+    <row r="59" spans="1:23" ht="15.75" customHeight="1">
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -2803,22 +3083,23 @@
       <c r="Q59" s="36"/>
       <c r="R59" s="37"/>
       <c r="S59" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T59" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U59" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V59" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W59" s="36"/>
+    </row>
+    <row r="60" spans="1:23" ht="15.75" customHeight="1">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
@@ -2838,22 +3119,23 @@
       <c r="Q60" s="36"/>
       <c r="R60" s="37"/>
       <c r="S60" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T60" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U60" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V60" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W60" s="36"/>
+    </row>
+    <row r="61" spans="1:23" ht="15.75" customHeight="1">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
@@ -2873,22 +3155,23 @@
       <c r="Q61" s="36"/>
       <c r="R61" s="37"/>
       <c r="S61" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T61" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U61" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V61" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W61" s="36"/>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" customHeight="1">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
@@ -2908,22 +3191,23 @@
       <c r="Q62" s="36"/>
       <c r="R62" s="37"/>
       <c r="S62" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T62" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U62" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V62" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W62" s="36"/>
+    </row>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1">
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
@@ -2943,22 +3227,23 @@
       <c r="Q63" s="36"/>
       <c r="R63" s="37"/>
       <c r="S63" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T63" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U63" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V63" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W63" s="36"/>
+    </row>
+    <row r="64" spans="1:23" ht="15.75" customHeight="1">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="36"/>
@@ -2978,22 +3263,23 @@
       <c r="Q64" s="36"/>
       <c r="R64" s="37"/>
       <c r="S64" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T64" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U64" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V64" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W64" s="36"/>
+    </row>
+    <row r="65" spans="1:23" ht="15.75" customHeight="1">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
@@ -3013,22 +3299,23 @@
       <c r="Q65" s="36"/>
       <c r="R65" s="37"/>
       <c r="S65" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T65" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U65" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V65" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W65" s="36"/>
+    </row>
+    <row r="66" spans="1:23" ht="15.75" customHeight="1">
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
@@ -3048,22 +3335,23 @@
       <c r="Q66" s="36"/>
       <c r="R66" s="37"/>
       <c r="S66" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T66" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U66" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V66" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W66" s="36"/>
+    </row>
+    <row r="67" spans="1:23" ht="15.75" customHeight="1">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -3083,22 +3371,23 @@
       <c r="Q67" s="36"/>
       <c r="R67" s="37"/>
       <c r="S67" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T67" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U67" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V67" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W67" s="36"/>
+    </row>
+    <row r="68" spans="1:23" ht="15.75" customHeight="1">
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -3118,22 +3407,23 @@
       <c r="Q68" s="36"/>
       <c r="R68" s="37"/>
       <c r="S68" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T68" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="T68:T131" si="5">+IF(D68="Cedula de Identidad",1,1)</f>
+        <v>1</v>
       </c>
       <c r="U68" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V68" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W68" s="36"/>
+    </row>
+    <row r="69" spans="1:23" ht="15.75" customHeight="1">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -3153,22 +3443,23 @@
       <c r="Q69" s="36"/>
       <c r="R69" s="37"/>
       <c r="S69" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T69" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U69" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V69" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W69" s="36"/>
+    </row>
+    <row r="70" spans="1:23" ht="15.75" customHeight="1">
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
@@ -3188,22 +3479,23 @@
       <c r="Q70" s="36"/>
       <c r="R70" s="37"/>
       <c r="S70" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T70" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U70" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V70" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W70" s="36"/>
+    </row>
+    <row r="71" spans="1:23" ht="15.75" customHeight="1">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
@@ -3223,22 +3515,23 @@
       <c r="Q71" s="36"/>
       <c r="R71" s="37"/>
       <c r="S71" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T71" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U71" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V71" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W71" s="36"/>
+    </row>
+    <row r="72" spans="1:23" ht="15.75" customHeight="1">
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
@@ -3258,22 +3551,23 @@
       <c r="Q72" s="36"/>
       <c r="R72" s="37"/>
       <c r="S72" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T72" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U72" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V72" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W72" s="36"/>
+    </row>
+    <row r="73" spans="1:23" ht="15.75" customHeight="1">
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
@@ -3293,22 +3587,23 @@
       <c r="Q73" s="36"/>
       <c r="R73" s="37"/>
       <c r="S73" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T73" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V73" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W73" s="36"/>
+    </row>
+    <row r="74" spans="1:23" ht="15.75" customHeight="1">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
@@ -3328,22 +3623,23 @@
       <c r="Q74" s="36"/>
       <c r="R74" s="37"/>
       <c r="S74" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T74" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U74" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V74" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W74" s="36"/>
+    </row>
+    <row r="75" spans="1:23" ht="15.75" customHeight="1">
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
       <c r="C75" s="36"/>
@@ -3363,22 +3659,23 @@
       <c r="Q75" s="36"/>
       <c r="R75" s="37"/>
       <c r="S75" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T75" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U75" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V75" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W75" s="36"/>
+    </row>
+    <row r="76" spans="1:23" ht="15.75" customHeight="1">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
@@ -3398,22 +3695,23 @@
       <c r="Q76" s="36"/>
       <c r="R76" s="37"/>
       <c r="S76" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T76" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U76" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V76" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W76" s="36"/>
+    </row>
+    <row r="77" spans="1:23" ht="15.75" customHeight="1">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
@@ -3433,22 +3731,23 @@
       <c r="Q77" s="36"/>
       <c r="R77" s="37"/>
       <c r="S77" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T77" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U77" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V77" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W77" s="36"/>
+    </row>
+    <row r="78" spans="1:23" ht="15.75" customHeight="1">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
@@ -3468,22 +3767,23 @@
       <c r="Q78" s="36"/>
       <c r="R78" s="37"/>
       <c r="S78" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T78" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U78" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V78" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W78" s="36"/>
+    </row>
+    <row r="79" spans="1:23" ht="15.75" customHeight="1">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -3503,22 +3803,23 @@
       <c r="Q79" s="36"/>
       <c r="R79" s="37"/>
       <c r="S79" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T79" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U79" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V79" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W79" s="36"/>
+    </row>
+    <row r="80" spans="1:23" ht="15.75" customHeight="1">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
@@ -3538,22 +3839,23 @@
       <c r="Q80" s="36"/>
       <c r="R80" s="37"/>
       <c r="S80" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U80" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V80" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W80" s="36"/>
+    </row>
+    <row r="81" spans="1:23" ht="15.75" customHeight="1">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
@@ -3573,22 +3875,23 @@
       <c r="Q81" s="36"/>
       <c r="R81" s="37"/>
       <c r="S81" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T81" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U81" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V81" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W81" s="36"/>
+    </row>
+    <row r="82" spans="1:23" ht="15.75" customHeight="1">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
@@ -3608,22 +3911,23 @@
       <c r="Q82" s="36"/>
       <c r="R82" s="37"/>
       <c r="S82" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T82" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U82" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V82" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W82" s="36"/>
+    </row>
+    <row r="83" spans="1:23" ht="15.75" customHeight="1">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
@@ -3643,22 +3947,23 @@
       <c r="Q83" s="36"/>
       <c r="R83" s="37"/>
       <c r="S83" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T83" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U83" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V83" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W83" s="36"/>
+    </row>
+    <row r="84" spans="1:23" ht="15.75" customHeight="1">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
@@ -3678,22 +3983,23 @@
       <c r="Q84" s="36"/>
       <c r="R84" s="37"/>
       <c r="S84" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V84" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W84" s="36"/>
+    </row>
+    <row r="85" spans="1:23" ht="15.75" customHeight="1">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
@@ -3713,22 +4019,23 @@
       <c r="Q85" s="36"/>
       <c r="R85" s="37"/>
       <c r="S85" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T85" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V85" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W85" s="36"/>
+    </row>
+    <row r="86" spans="1:23" ht="15.75" customHeight="1">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
@@ -3748,22 +4055,23 @@
       <c r="Q86" s="36"/>
       <c r="R86" s="37"/>
       <c r="S86" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T86" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V86" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W86" s="36"/>
+    </row>
+    <row r="87" spans="1:23" ht="15.75" customHeight="1">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
@@ -3783,22 +4091,23 @@
       <c r="Q87" s="36"/>
       <c r="R87" s="37"/>
       <c r="S87" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T87" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V87" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W87" s="36"/>
+    </row>
+    <row r="88" spans="1:23" ht="15.75" customHeight="1">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
@@ -3818,22 +4127,23 @@
       <c r="Q88" s="36"/>
       <c r="R88" s="37"/>
       <c r="S88" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T88" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V88" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W88" s="36"/>
+    </row>
+    <row r="89" spans="1:23" ht="15.75" customHeight="1">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
@@ -3853,22 +4163,23 @@
       <c r="Q89" s="36"/>
       <c r="R89" s="37"/>
       <c r="S89" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V89" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W89" s="36"/>
+    </row>
+    <row r="90" spans="1:23" ht="15.75" customHeight="1">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -3888,22 +4199,23 @@
       <c r="Q90" s="36"/>
       <c r="R90" s="37"/>
       <c r="S90" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T90" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U90" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V90" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W90" s="36"/>
+    </row>
+    <row r="91" spans="1:23" ht="15.75" customHeight="1">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
@@ -3923,22 +4235,23 @@
       <c r="Q91" s="36"/>
       <c r="R91" s="37"/>
       <c r="S91" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T91" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V91" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W91" s="36"/>
+    </row>
+    <row r="92" spans="1:23" ht="15.75" customHeight="1">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
@@ -3958,22 +4271,23 @@
       <c r="Q92" s="36"/>
       <c r="R92" s="37"/>
       <c r="S92" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T92" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V92" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W92" s="36"/>
+    </row>
+    <row r="93" spans="1:23" ht="15.75" customHeight="1">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
       <c r="C93" s="36"/>
@@ -3993,22 +4307,23 @@
       <c r="Q93" s="36"/>
       <c r="R93" s="37"/>
       <c r="S93" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T93" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U93" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V93" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W93" s="36"/>
+    </row>
+    <row r="94" spans="1:23" ht="15.75" customHeight="1">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
       <c r="C94" s="36"/>
@@ -4028,22 +4343,23 @@
       <c r="Q94" s="36"/>
       <c r="R94" s="37"/>
       <c r="S94" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T94" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U94" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U94:U157" si="6">+R94</f>
         <v>0</v>
       </c>
       <c r="V94" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" ref="V94:V157" si="7">+CONCATENATE(S94,",",T94,",",E94,",",E94,",",U94)</f>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W94" s="36"/>
+    </row>
+    <row r="95" spans="1:23" ht="15.75" customHeight="1">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
@@ -4063,22 +4379,23 @@
       <c r="Q95" s="36"/>
       <c r="R95" s="37"/>
       <c r="S95" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T95" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U95" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V95" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W95" s="36"/>
+    </row>
+    <row r="96" spans="1:23" ht="15.75" customHeight="1">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -4098,22 +4415,23 @@
       <c r="Q96" s="36"/>
       <c r="R96" s="37"/>
       <c r="S96" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T96" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U96" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V96" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W96" s="36"/>
+    </row>
+    <row r="97" spans="1:23" ht="15.75" customHeight="1">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
@@ -4133,22 +4451,23 @@
       <c r="Q97" s="36"/>
       <c r="R97" s="37"/>
       <c r="S97" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T97" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U97" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V97" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W97" s="36"/>
+    </row>
+    <row r="98" spans="1:23" ht="15.75" customHeight="1">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
@@ -4168,22 +4487,23 @@
       <c r="Q98" s="36"/>
       <c r="R98" s="37"/>
       <c r="S98" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T98" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U98" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V98" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W98" s="36"/>
+    </row>
+    <row r="99" spans="1:23" ht="15.75" customHeight="1">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
@@ -4203,22 +4523,23 @@
       <c r="Q99" s="36"/>
       <c r="R99" s="37"/>
       <c r="S99" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T99" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U99" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V99" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W99" s="36"/>
+    </row>
+    <row r="100" spans="1:23" ht="15.75" customHeight="1">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
@@ -4238,22 +4559,23 @@
       <c r="Q100" s="36"/>
       <c r="R100" s="37"/>
       <c r="S100" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T100" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U100" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V100" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W100" s="36"/>
+    </row>
+    <row r="101" spans="1:23" ht="15.75" customHeight="1">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
@@ -4273,22 +4595,23 @@
       <c r="Q101" s="36"/>
       <c r="R101" s="37"/>
       <c r="S101" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T101" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U101" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V101" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W101" s="36"/>
+    </row>
+    <row r="102" spans="1:23" ht="15.75" customHeight="1">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
@@ -4308,22 +4631,23 @@
       <c r="Q102" s="36"/>
       <c r="R102" s="37"/>
       <c r="S102" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T102" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U102" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V102" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W102" s="36"/>
+    </row>
+    <row r="103" spans="1:23" ht="15.75" customHeight="1">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
@@ -4343,22 +4667,23 @@
       <c r="Q103" s="36"/>
       <c r="R103" s="37"/>
       <c r="S103" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T103" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U103" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V103" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W103" s="36"/>
+    </row>
+    <row r="104" spans="1:23" ht="15.75" customHeight="1">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
@@ -4378,22 +4703,23 @@
       <c r="Q104" s="36"/>
       <c r="R104" s="37"/>
       <c r="S104" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T104" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U104" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V104" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W104" s="36"/>
+    </row>
+    <row r="105" spans="1:23" ht="15.75" customHeight="1">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -4413,22 +4739,23 @@
       <c r="Q105" s="36"/>
       <c r="R105" s="37"/>
       <c r="S105" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T105" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U105" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V105" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W105" s="36"/>
+    </row>
+    <row r="106" spans="1:23" ht="15.75" customHeight="1">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
       <c r="C106" s="36"/>
@@ -4448,22 +4775,23 @@
       <c r="Q106" s="36"/>
       <c r="R106" s="37"/>
       <c r="S106" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U106" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V106" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W106" s="36"/>
+    </row>
+    <row r="107" spans="1:23" ht="15.75" customHeight="1">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
       <c r="C107" s="36"/>
@@ -4483,22 +4811,23 @@
       <c r="Q107" s="36"/>
       <c r="R107" s="37"/>
       <c r="S107" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T107" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U107" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V107" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W107" s="36"/>
+    </row>
+    <row r="108" spans="1:23" ht="15.75" customHeight="1">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
@@ -4518,22 +4847,23 @@
       <c r="Q108" s="36"/>
       <c r="R108" s="37"/>
       <c r="S108" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T108" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U108" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V108" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W108" s="36"/>
+    </row>
+    <row r="109" spans="1:23" ht="15.75" customHeight="1">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
@@ -4553,22 +4883,23 @@
       <c r="Q109" s="36"/>
       <c r="R109" s="37"/>
       <c r="S109" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T109" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U109" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V109" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W109" s="36"/>
+    </row>
+    <row r="110" spans="1:23" ht="15.75" customHeight="1">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
@@ -4588,22 +4919,23 @@
       <c r="Q110" s="36"/>
       <c r="R110" s="37"/>
       <c r="S110" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T110" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U110" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V110" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W110" s="36"/>
+    </row>
+    <row r="111" spans="1:23" ht="15.75" customHeight="1">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
@@ -4623,22 +4955,23 @@
       <c r="Q111" s="36"/>
       <c r="R111" s="37"/>
       <c r="S111" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T111" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U111" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V111" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W111" s="36"/>
+    </row>
+    <row r="112" spans="1:23" ht="15.75" customHeight="1">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
@@ -4658,22 +4991,23 @@
       <c r="Q112" s="36"/>
       <c r="R112" s="37"/>
       <c r="S112" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T112" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U112" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V112" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W112" s="36"/>
+    </row>
+    <row r="113" spans="1:23" ht="15.75" customHeight="1">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
@@ -4693,22 +5027,23 @@
       <c r="Q113" s="36"/>
       <c r="R113" s="37"/>
       <c r="S113" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T113" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U113" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V113" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W113" s="36"/>
+    </row>
+    <row r="114" spans="1:23" ht="15.75" customHeight="1">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -4728,22 +5063,23 @@
       <c r="Q114" s="36"/>
       <c r="R114" s="37"/>
       <c r="S114" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T114" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U114" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V114" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W114" s="36"/>
+    </row>
+    <row r="115" spans="1:23" ht="15.75" customHeight="1">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
@@ -4763,22 +5099,23 @@
       <c r="Q115" s="36"/>
       <c r="R115" s="37"/>
       <c r="S115" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T115" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U115" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V115" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W115" s="36"/>
+    </row>
+    <row r="116" spans="1:23" ht="15.75" customHeight="1">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
@@ -4798,22 +5135,23 @@
       <c r="Q116" s="36"/>
       <c r="R116" s="37"/>
       <c r="S116" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T116" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U116" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V116" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W116" s="36"/>
+    </row>
+    <row r="117" spans="1:23" ht="15.75" customHeight="1">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
       <c r="C117" s="36"/>
@@ -4833,22 +5171,23 @@
       <c r="Q117" s="36"/>
       <c r="R117" s="37"/>
       <c r="S117" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T117" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U117" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V117" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W117" s="36"/>
+    </row>
+    <row r="118" spans="1:23" ht="15.75" customHeight="1">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
       <c r="C118" s="36"/>
@@ -4868,22 +5207,23 @@
       <c r="Q118" s="36"/>
       <c r="R118" s="37"/>
       <c r="S118" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T118" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U118" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V118" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W118" s="36"/>
+    </row>
+    <row r="119" spans="1:23" ht="15.75" customHeight="1">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
@@ -4903,22 +5243,23 @@
       <c r="Q119" s="36"/>
       <c r="R119" s="37"/>
       <c r="S119" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T119" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U119" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V119" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W119" s="36"/>
+    </row>
+    <row r="120" spans="1:23" ht="15.75" customHeight="1">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
       <c r="C120" s="36"/>
@@ -4938,22 +5279,23 @@
       <c r="Q120" s="36"/>
       <c r="R120" s="37"/>
       <c r="S120" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T120" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U120" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V120" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W120" s="36"/>
+    </row>
+    <row r="121" spans="1:23" ht="15.75" customHeight="1">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
       <c r="C121" s="36"/>
@@ -4973,22 +5315,23 @@
       <c r="Q121" s="36"/>
       <c r="R121" s="37"/>
       <c r="S121" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T121" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U121" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V121" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W121" s="36"/>
+    </row>
+    <row r="122" spans="1:23" ht="15.75" customHeight="1">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="36"/>
@@ -5008,22 +5351,23 @@
       <c r="Q122" s="36"/>
       <c r="R122" s="37"/>
       <c r="S122" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T122" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U122" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V122" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W122" s="36"/>
+    </row>
+    <row r="123" spans="1:23" ht="15.75" customHeight="1">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
       <c r="C123" s="36"/>
@@ -5043,22 +5387,23 @@
       <c r="Q123" s="36"/>
       <c r="R123" s="37"/>
       <c r="S123" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T123" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U123" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V123" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W123" s="36"/>
+    </row>
+    <row r="124" spans="1:23" ht="15.75" customHeight="1">
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -5078,22 +5423,23 @@
       <c r="Q124" s="36"/>
       <c r="R124" s="37"/>
       <c r="S124" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T124" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U124" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V124" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W124" s="36"/>
+    </row>
+    <row r="125" spans="1:23" ht="15.75" customHeight="1">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
       <c r="C125" s="36"/>
@@ -5113,22 +5459,23 @@
       <c r="Q125" s="36"/>
       <c r="R125" s="37"/>
       <c r="S125" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T125" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U125" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V125" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W125" s="36"/>
+    </row>
+    <row r="126" spans="1:23" ht="15.75" customHeight="1">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
@@ -5148,22 +5495,23 @@
       <c r="Q126" s="36"/>
       <c r="R126" s="37"/>
       <c r="S126" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T126" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U126" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V126" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W126" s="36"/>
+    </row>
+    <row r="127" spans="1:23" ht="15.75" customHeight="1">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
       <c r="C127" s="36"/>
@@ -5183,22 +5531,23 @@
       <c r="Q127" s="36"/>
       <c r="R127" s="37"/>
       <c r="S127" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T127" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U127" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V127" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W127" s="36"/>
+    </row>
+    <row r="128" spans="1:23" ht="15.75" customHeight="1">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
@@ -5218,22 +5567,23 @@
       <c r="Q128" s="36"/>
       <c r="R128" s="37"/>
       <c r="S128" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T128" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U128" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V128" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W128" s="36"/>
+    </row>
+    <row r="129" spans="1:23" ht="15.75" customHeight="1">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
@@ -5253,22 +5603,23 @@
       <c r="Q129" s="36"/>
       <c r="R129" s="37"/>
       <c r="S129" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T129" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U129" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V129" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W129" s="36"/>
+    </row>
+    <row r="130" spans="1:23" ht="15.75" customHeight="1">
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
@@ -5288,22 +5639,23 @@
       <c r="Q130" s="36"/>
       <c r="R130" s="37"/>
       <c r="S130" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T130" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U130" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V130" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W130" s="36"/>
+    </row>
+    <row r="131" spans="1:23" ht="15.75" customHeight="1">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
@@ -5323,22 +5675,23 @@
       <c r="Q131" s="36"/>
       <c r="R131" s="37"/>
       <c r="S131" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T131" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U131" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V131" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W131" s="36"/>
+    </row>
+    <row r="132" spans="1:23" ht="15.75" customHeight="1">
       <c r="A132" s="36"/>
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
@@ -5358,22 +5711,23 @@
       <c r="Q132" s="36"/>
       <c r="R132" s="37"/>
       <c r="S132" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T132" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="T132:T195" si="8">+IF(D132="Cedula de Identidad",1,1)</f>
+        <v>1</v>
       </c>
       <c r="U132" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V132" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W132" s="36"/>
+    </row>
+    <row r="133" spans="1:23" ht="15.75" customHeight="1">
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
@@ -5393,22 +5747,23 @@
       <c r="Q133" s="36"/>
       <c r="R133" s="37"/>
       <c r="S133" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T133" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U133" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V133" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W133" s="36"/>
+    </row>
+    <row r="134" spans="1:23" ht="15.75" customHeight="1">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
@@ -5428,22 +5783,23 @@
       <c r="Q134" s="36"/>
       <c r="R134" s="37"/>
       <c r="S134" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T134" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U134" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V134" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W134" s="36"/>
+    </row>
+    <row r="135" spans="1:23" ht="15.75" customHeight="1">
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
       <c r="C135" s="36"/>
@@ -5463,22 +5819,23 @@
       <c r="Q135" s="36"/>
       <c r="R135" s="37"/>
       <c r="S135" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T135" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U135" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V135" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W135" s="36"/>
+    </row>
+    <row r="136" spans="1:23" ht="15.75" customHeight="1">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="36"/>
@@ -5498,22 +5855,23 @@
       <c r="Q136" s="36"/>
       <c r="R136" s="37"/>
       <c r="S136" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T136" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U136" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V136" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W136" s="36"/>
+    </row>
+    <row r="137" spans="1:23" ht="15.75" customHeight="1">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
@@ -5533,22 +5891,23 @@
       <c r="Q137" s="36"/>
       <c r="R137" s="37"/>
       <c r="S137" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T137" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U137" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V137" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W137" s="36"/>
+    </row>
+    <row r="138" spans="1:23" ht="15.75" customHeight="1">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
       <c r="C138" s="36"/>
@@ -5568,22 +5927,23 @@
       <c r="Q138" s="36"/>
       <c r="R138" s="37"/>
       <c r="S138" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T138" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U138" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V138" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W138" s="36"/>
+    </row>
+    <row r="139" spans="1:23" ht="15.75" customHeight="1">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
       <c r="C139" s="36"/>
@@ -5603,22 +5963,23 @@
       <c r="Q139" s="36"/>
       <c r="R139" s="37"/>
       <c r="S139" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T139" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U139" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V139" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W139" s="36"/>
+    </row>
+    <row r="140" spans="1:23" ht="15.75" customHeight="1">
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
       <c r="C140" s="36"/>
@@ -5638,22 +5999,23 @@
       <c r="Q140" s="36"/>
       <c r="R140" s="37"/>
       <c r="S140" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T140" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U140" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V140" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W140" s="36"/>
+    </row>
+    <row r="141" spans="1:23" ht="15.75" customHeight="1">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
       <c r="C141" s="36"/>
@@ -5673,22 +6035,23 @@
       <c r="Q141" s="36"/>
       <c r="R141" s="37"/>
       <c r="S141" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T141" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U141" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V141" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W141" s="36"/>
+    </row>
+    <row r="142" spans="1:23" ht="15.75" customHeight="1">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
       <c r="C142" s="36"/>
@@ -5708,22 +6071,23 @@
       <c r="Q142" s="36"/>
       <c r="R142" s="37"/>
       <c r="S142" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T142" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U142" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V142" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W142" s="36"/>
+    </row>
+    <row r="143" spans="1:23" ht="15.75" customHeight="1">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
@@ -5743,22 +6107,23 @@
       <c r="Q143" s="36"/>
       <c r="R143" s="37"/>
       <c r="S143" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T143" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U143" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V143" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W143" s="36"/>
+    </row>
+    <row r="144" spans="1:23" ht="15.75" customHeight="1">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
@@ -5778,22 +6143,23 @@
       <c r="Q144" s="36"/>
       <c r="R144" s="37"/>
       <c r="S144" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T144" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U144" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V144" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W144" s="36"/>
+    </row>
+    <row r="145" spans="1:23" ht="15.75" customHeight="1">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
@@ -5813,22 +6179,23 @@
       <c r="Q145" s="36"/>
       <c r="R145" s="37"/>
       <c r="S145" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T145" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U145" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V145" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W145" s="36"/>
+    </row>
+    <row r="146" spans="1:23" ht="15.75" customHeight="1">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
       <c r="C146" s="36"/>
@@ -5848,22 +6215,23 @@
       <c r="Q146" s="36"/>
       <c r="R146" s="37"/>
       <c r="S146" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T146" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U146" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V146" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W146" s="36"/>
+    </row>
+    <row r="147" spans="1:23" ht="15.75" customHeight="1">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
@@ -5883,22 +6251,23 @@
       <c r="Q147" s="36"/>
       <c r="R147" s="37"/>
       <c r="S147" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T147" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U147" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V147" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W147" s="36"/>
+    </row>
+    <row r="148" spans="1:23" ht="15.75" customHeight="1">
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
       <c r="C148" s="36"/>
@@ -5918,22 +6287,23 @@
       <c r="Q148" s="36"/>
       <c r="R148" s="37"/>
       <c r="S148" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T148" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U148" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V148" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W148" s="36"/>
+    </row>
+    <row r="149" spans="1:23" ht="15.75" customHeight="1">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
       <c r="C149" s="36"/>
@@ -5953,22 +6323,23 @@
       <c r="Q149" s="36"/>
       <c r="R149" s="37"/>
       <c r="S149" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T149" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U149" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V149" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W149" s="36"/>
+    </row>
+    <row r="150" spans="1:23" ht="15.75" customHeight="1">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
       <c r="C150" s="36"/>
@@ -5988,22 +6359,23 @@
       <c r="Q150" s="36"/>
       <c r="R150" s="37"/>
       <c r="S150" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T150" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U150" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V150" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W150" s="36"/>
+    </row>
+    <row r="151" spans="1:23" ht="15.75" customHeight="1">
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
       <c r="C151" s="36"/>
@@ -6023,22 +6395,23 @@
       <c r="Q151" s="36"/>
       <c r="R151" s="37"/>
       <c r="S151" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T151" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U151" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V151" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W151" s="36"/>
+    </row>
+    <row r="152" spans="1:23" ht="15.75" customHeight="1">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
       <c r="C152" s="36"/>
@@ -6058,22 +6431,23 @@
       <c r="Q152" s="36"/>
       <c r="R152" s="37"/>
       <c r="S152" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T152" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U152" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V152" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W152" s="36"/>
+    </row>
+    <row r="153" spans="1:23" ht="15.75" customHeight="1">
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -6093,22 +6467,23 @@
       <c r="Q153" s="36"/>
       <c r="R153" s="37"/>
       <c r="S153" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T153" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U153" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V153" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W153" s="36"/>
+    </row>
+    <row r="154" spans="1:23" ht="15.75" customHeight="1">
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
       <c r="C154" s="36"/>
@@ -6128,22 +6503,23 @@
       <c r="Q154" s="36"/>
       <c r="R154" s="37"/>
       <c r="S154" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T154" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U154" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V154" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W154" s="36"/>
+    </row>
+    <row r="155" spans="1:23" ht="15.75" customHeight="1">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -6163,22 +6539,23 @@
       <c r="Q155" s="36"/>
       <c r="R155" s="37"/>
       <c r="S155" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T155" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U155" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V155" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W155" s="36"/>
+    </row>
+    <row r="156" spans="1:23" ht="15.75" customHeight="1">
       <c r="A156" s="36"/>
       <c r="B156" s="36"/>
       <c r="C156" s="36"/>
@@ -6198,22 +6575,23 @@
       <c r="Q156" s="36"/>
       <c r="R156" s="37"/>
       <c r="S156" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T156" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U156" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V156" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W156" s="36"/>
+    </row>
+    <row r="157" spans="1:23" ht="15.75" customHeight="1">
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
       <c r="C157" s="36"/>
@@ -6233,22 +6611,23 @@
       <c r="Q157" s="36"/>
       <c r="R157" s="37"/>
       <c r="S157" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T157" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U157" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V157" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="7"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W157" s="36"/>
+    </row>
+    <row r="158" spans="1:23" ht="15.75" customHeight="1">
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
       <c r="C158" s="36"/>
@@ -6268,22 +6647,23 @@
       <c r="Q158" s="36"/>
       <c r="R158" s="37"/>
       <c r="S158" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T158" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U158" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U158:U221" si="9">+R158</f>
         <v>0</v>
       </c>
       <c r="V158" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" ref="V158:V221" si="10">+CONCATENATE(S158,",",T158,",",E158,",",E158,",",U158)</f>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W158" s="36"/>
+    </row>
+    <row r="159" spans="1:23" ht="15.75" customHeight="1">
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
       <c r="C159" s="36"/>
@@ -6303,22 +6683,23 @@
       <c r="Q159" s="36"/>
       <c r="R159" s="37"/>
       <c r="S159" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T159" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U159" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V159" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W159" s="36"/>
+    </row>
+    <row r="160" spans="1:23" ht="15.75" customHeight="1">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
       <c r="C160" s="36"/>
@@ -6338,22 +6719,23 @@
       <c r="Q160" s="36"/>
       <c r="R160" s="37"/>
       <c r="S160" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T160" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U160" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V160" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W160" s="36"/>
+    </row>
+    <row r="161" spans="1:23" ht="15.75" customHeight="1">
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
       <c r="C161" s="36"/>
@@ -6373,22 +6755,23 @@
       <c r="Q161" s="36"/>
       <c r="R161" s="37"/>
       <c r="S161" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T161" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U161" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V161" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W161" s="36"/>
+    </row>
+    <row r="162" spans="1:23" ht="15.75" customHeight="1">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
       <c r="C162" s="36"/>
@@ -6408,22 +6791,23 @@
       <c r="Q162" s="36"/>
       <c r="R162" s="37"/>
       <c r="S162" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T162" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U162" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V162" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W162" s="36"/>
+    </row>
+    <row r="163" spans="1:23" ht="15.75" customHeight="1">
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
       <c r="C163" s="36"/>
@@ -6443,22 +6827,23 @@
       <c r="Q163" s="36"/>
       <c r="R163" s="37"/>
       <c r="S163" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T163" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U163" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V163" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W163" s="36"/>
+    </row>
+    <row r="164" spans="1:23" ht="15.75" customHeight="1">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
       <c r="C164" s="36"/>
@@ -6478,22 +6863,23 @@
       <c r="Q164" s="36"/>
       <c r="R164" s="37"/>
       <c r="S164" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T164" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U164" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V164" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W164" s="36"/>
+    </row>
+    <row r="165" spans="1:23" ht="15.75" customHeight="1">
       <c r="A165" s="36"/>
       <c r="B165" s="36"/>
       <c r="C165" s="36"/>
@@ -6513,22 +6899,23 @@
       <c r="Q165" s="36"/>
       <c r="R165" s="37"/>
       <c r="S165" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T165" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U165" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V165" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W165" s="36"/>
+    </row>
+    <row r="166" spans="1:23" ht="15.75" customHeight="1">
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -6548,22 +6935,23 @@
       <c r="Q166" s="36"/>
       <c r="R166" s="37"/>
       <c r="S166" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T166" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U166" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V166" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W166" s="36"/>
+    </row>
+    <row r="167" spans="1:23" ht="15.75" customHeight="1">
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
       <c r="C167" s="36"/>
@@ -6583,22 +6971,23 @@
       <c r="Q167" s="36"/>
       <c r="R167" s="37"/>
       <c r="S167" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T167" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U167" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V167" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W167" s="36"/>
+    </row>
+    <row r="168" spans="1:23" ht="15.75" customHeight="1">
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
       <c r="C168" s="36"/>
@@ -6618,22 +7007,23 @@
       <c r="Q168" s="36"/>
       <c r="R168" s="37"/>
       <c r="S168" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T168" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U168" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V168" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W168" s="36"/>
+    </row>
+    <row r="169" spans="1:23" ht="15.75" customHeight="1">
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
       <c r="C169" s="36"/>
@@ -6653,22 +7043,23 @@
       <c r="Q169" s="36"/>
       <c r="R169" s="37"/>
       <c r="S169" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T169" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U169" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V169" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W169" s="36"/>
+    </row>
+    <row r="170" spans="1:23" ht="15.75" customHeight="1">
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
       <c r="C170" s="36"/>
@@ -6688,22 +7079,23 @@
       <c r="Q170" s="36"/>
       <c r="R170" s="37"/>
       <c r="S170" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T170" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U170" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V170" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W170" s="36"/>
+    </row>
+    <row r="171" spans="1:23" ht="15.75" customHeight="1">
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
       <c r="C171" s="36"/>
@@ -6723,22 +7115,23 @@
       <c r="Q171" s="36"/>
       <c r="R171" s="37"/>
       <c r="S171" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T171" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U171" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V171" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W171" s="36"/>
+    </row>
+    <row r="172" spans="1:23" ht="15.75" customHeight="1">
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
       <c r="C172" s="36"/>
@@ -6758,22 +7151,23 @@
       <c r="Q172" s="36"/>
       <c r="R172" s="37"/>
       <c r="S172" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T172" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U172" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V172" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W172" s="36"/>
+    </row>
+    <row r="173" spans="1:23" ht="15.75" customHeight="1">
       <c r="A173" s="36"/>
       <c r="B173" s="36"/>
       <c r="C173" s="36"/>
@@ -6793,22 +7187,23 @@
       <c r="Q173" s="36"/>
       <c r="R173" s="37"/>
       <c r="S173" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T173" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U173" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V173" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W173" s="36"/>
+    </row>
+    <row r="174" spans="1:23" ht="15.75" customHeight="1">
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
       <c r="C174" s="36"/>
@@ -6828,22 +7223,23 @@
       <c r="Q174" s="36"/>
       <c r="R174" s="37"/>
       <c r="S174" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T174" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U174" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V174" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W174" s="36"/>
+    </row>
+    <row r="175" spans="1:23" ht="15.75" customHeight="1">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
       <c r="C175" s="36"/>
@@ -6863,22 +7259,23 @@
       <c r="Q175" s="36"/>
       <c r="R175" s="37"/>
       <c r="S175" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T175" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U175" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V175" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W175" s="36"/>
+    </row>
+    <row r="176" spans="1:23" ht="15.75" customHeight="1">
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
       <c r="C176" s="36"/>
@@ -6898,22 +7295,23 @@
       <c r="Q176" s="36"/>
       <c r="R176" s="37"/>
       <c r="S176" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T176" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U176" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V176" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W176" s="36"/>
+    </row>
+    <row r="177" spans="1:23" ht="15.75" customHeight="1">
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
       <c r="C177" s="36"/>
@@ -6933,22 +7331,23 @@
       <c r="Q177" s="36"/>
       <c r="R177" s="37"/>
       <c r="S177" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T177" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U177" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V177" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W177" s="36"/>
+    </row>
+    <row r="178" spans="1:23" ht="15.75" customHeight="1">
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
       <c r="C178" s="36"/>
@@ -6968,22 +7367,23 @@
       <c r="Q178" s="36"/>
       <c r="R178" s="37"/>
       <c r="S178" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T178" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U178" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V178" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W178" s="36"/>
+    </row>
+    <row r="179" spans="1:23" ht="15.75" customHeight="1">
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
       <c r="C179" s="36"/>
@@ -7003,22 +7403,23 @@
       <c r="Q179" s="36"/>
       <c r="R179" s="37"/>
       <c r="S179" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T179" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U179" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V179" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W179" s="36"/>
+    </row>
+    <row r="180" spans="1:23" ht="15.75" customHeight="1">
       <c r="A180" s="36"/>
       <c r="B180" s="36"/>
       <c r="C180" s="36"/>
@@ -7038,22 +7439,23 @@
       <c r="Q180" s="36"/>
       <c r="R180" s="37"/>
       <c r="S180" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T180" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U180" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V180" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W180" s="36"/>
+    </row>
+    <row r="181" spans="1:23" ht="15.75" customHeight="1">
       <c r="A181" s="36"/>
       <c r="B181" s="36"/>
       <c r="C181" s="36"/>
@@ -7073,22 +7475,23 @@
       <c r="Q181" s="36"/>
       <c r="R181" s="37"/>
       <c r="S181" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T181" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U181" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V181" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W181" s="36"/>
+    </row>
+    <row r="182" spans="1:23" ht="15.75" customHeight="1">
       <c r="A182" s="36"/>
       <c r="B182" s="36"/>
       <c r="C182" s="36"/>
@@ -7108,22 +7511,23 @@
       <c r="Q182" s="36"/>
       <c r="R182" s="37"/>
       <c r="S182" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T182" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U182" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V182" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W182" s="36"/>
+    </row>
+    <row r="183" spans="1:23" ht="15.75" customHeight="1">
       <c r="A183" s="36"/>
       <c r="B183" s="36"/>
       <c r="C183" s="36"/>
@@ -7143,22 +7547,23 @@
       <c r="Q183" s="36"/>
       <c r="R183" s="37"/>
       <c r="S183" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T183" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U183" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V183" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W183" s="36"/>
+    </row>
+    <row r="184" spans="1:23" ht="15.75" customHeight="1">
       <c r="A184" s="36"/>
       <c r="B184" s="36"/>
       <c r="C184" s="36"/>
@@ -7178,22 +7583,23 @@
       <c r="Q184" s="36"/>
       <c r="R184" s="37"/>
       <c r="S184" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T184" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U184" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V184" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W184" s="36"/>
+    </row>
+    <row r="185" spans="1:23" ht="15.75" customHeight="1">
       <c r="A185" s="36"/>
       <c r="B185" s="36"/>
       <c r="C185" s="36"/>
@@ -7213,22 +7619,23 @@
       <c r="Q185" s="36"/>
       <c r="R185" s="37"/>
       <c r="S185" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T185" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U185" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V185" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W185" s="36"/>
+    </row>
+    <row r="186" spans="1:23" ht="15.75" customHeight="1">
       <c r="A186" s="36"/>
       <c r="B186" s="36"/>
       <c r="C186" s="36"/>
@@ -7248,22 +7655,23 @@
       <c r="Q186" s="36"/>
       <c r="R186" s="37"/>
       <c r="S186" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T186" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U186" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V186" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W186" s="36"/>
+    </row>
+    <row r="187" spans="1:23" ht="15.75" customHeight="1">
       <c r="A187" s="36"/>
       <c r="B187" s="36"/>
       <c r="C187" s="36"/>
@@ -7283,22 +7691,23 @@
       <c r="Q187" s="36"/>
       <c r="R187" s="37"/>
       <c r="S187" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T187" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U187" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V187" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W187" s="36"/>
+    </row>
+    <row r="188" spans="1:23" ht="15.75" customHeight="1">
       <c r="A188" s="36"/>
       <c r="B188" s="36"/>
       <c r="C188" s="36"/>
@@ -7318,22 +7727,23 @@
       <c r="Q188" s="36"/>
       <c r="R188" s="37"/>
       <c r="S188" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T188" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U188" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V188" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W188" s="36"/>
+    </row>
+    <row r="189" spans="1:23" ht="15.75" customHeight="1">
       <c r="A189" s="36"/>
       <c r="B189" s="36"/>
       <c r="C189" s="36"/>
@@ -7353,22 +7763,23 @@
       <c r="Q189" s="36"/>
       <c r="R189" s="37"/>
       <c r="S189" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T189" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U189" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V189" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W189" s="36"/>
+    </row>
+    <row r="190" spans="1:23" ht="15.75" customHeight="1">
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
       <c r="C190" s="36"/>
@@ -7388,22 +7799,23 @@
       <c r="Q190" s="36"/>
       <c r="R190" s="37"/>
       <c r="S190" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T190" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U190" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V190" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W190" s="36"/>
+    </row>
+    <row r="191" spans="1:23" ht="15.75" customHeight="1">
       <c r="A191" s="36"/>
       <c r="B191" s="36"/>
       <c r="C191" s="36"/>
@@ -7423,22 +7835,23 @@
       <c r="Q191" s="36"/>
       <c r="R191" s="37"/>
       <c r="S191" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T191" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U191" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V191" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W191" s="36"/>
+    </row>
+    <row r="192" spans="1:23" ht="15.75" customHeight="1">
       <c r="A192" s="36"/>
       <c r="B192" s="36"/>
       <c r="C192" s="36"/>
@@ -7458,22 +7871,23 @@
       <c r="Q192" s="36"/>
       <c r="R192" s="37"/>
       <c r="S192" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T192" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U192" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V192" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W192" s="36"/>
+    </row>
+    <row r="193" spans="1:23" ht="15.75" customHeight="1">
       <c r="A193" s="36"/>
       <c r="B193" s="36"/>
       <c r="C193" s="36"/>
@@ -7493,22 +7907,23 @@
       <c r="Q193" s="36"/>
       <c r="R193" s="37"/>
       <c r="S193" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T193" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U193" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V193" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W193" s="36"/>
+    </row>
+    <row r="194" spans="1:23" ht="15.75" customHeight="1">
       <c r="A194" s="36"/>
       <c r="B194" s="36"/>
       <c r="C194" s="36"/>
@@ -7528,22 +7943,23 @@
       <c r="Q194" s="36"/>
       <c r="R194" s="37"/>
       <c r="S194" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T194" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U194" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V194" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W194" s="36"/>
+    </row>
+    <row r="195" spans="1:23" ht="15.75" customHeight="1">
       <c r="A195" s="36"/>
       <c r="B195" s="36"/>
       <c r="C195" s="36"/>
@@ -7563,22 +7979,23 @@
       <c r="Q195" s="36"/>
       <c r="R195" s="37"/>
       <c r="S195" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T195" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="U195" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V195" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W195" s="36"/>
+    </row>
+    <row r="196" spans="1:23" ht="15.75" customHeight="1">
       <c r="A196" s="36"/>
       <c r="B196" s="36"/>
       <c r="C196" s="36"/>
@@ -7598,22 +8015,23 @@
       <c r="Q196" s="36"/>
       <c r="R196" s="37"/>
       <c r="S196" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T196" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="T196:T251" si="11">+IF(D196="Cedula de Identidad",1,1)</f>
+        <v>1</v>
       </c>
       <c r="U196" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V196" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W196" s="36"/>
+    </row>
+    <row r="197" spans="1:23" ht="15.75" customHeight="1">
       <c r="A197" s="36"/>
       <c r="B197" s="36"/>
       <c r="C197" s="36"/>
@@ -7633,22 +8051,23 @@
       <c r="Q197" s="36"/>
       <c r="R197" s="37"/>
       <c r="S197" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T197" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U197" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V197" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W197" s="36"/>
+    </row>
+    <row r="198" spans="1:23" ht="15.75" customHeight="1">
       <c r="A198" s="36"/>
       <c r="B198" s="36"/>
       <c r="C198" s="36"/>
@@ -7668,22 +8087,23 @@
       <c r="Q198" s="36"/>
       <c r="R198" s="37"/>
       <c r="S198" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T198" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U198" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V198" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W198" s="36"/>
+    </row>
+    <row r="199" spans="1:23" ht="15.75" customHeight="1">
       <c r="A199" s="36"/>
       <c r="B199" s="36"/>
       <c r="C199" s="36"/>
@@ -7703,22 +8123,23 @@
       <c r="Q199" s="36"/>
       <c r="R199" s="37"/>
       <c r="S199" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T199" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U199" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V199" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W199" s="36"/>
+    </row>
+    <row r="200" spans="1:23" ht="15.75" customHeight="1">
       <c r="A200" s="36"/>
       <c r="B200" s="36"/>
       <c r="C200" s="36"/>
@@ -7738,22 +8159,23 @@
       <c r="Q200" s="36"/>
       <c r="R200" s="37"/>
       <c r="S200" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T200" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U200" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V200" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W200" s="36"/>
+    </row>
+    <row r="201" spans="1:23" ht="15.75" customHeight="1">
       <c r="A201" s="36"/>
       <c r="B201" s="36"/>
       <c r="C201" s="36"/>
@@ -7773,22 +8195,23 @@
       <c r="Q201" s="36"/>
       <c r="R201" s="37"/>
       <c r="S201" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T201" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U201" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V201" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W201" s="36"/>
+    </row>
+    <row r="202" spans="1:23" ht="15.75" customHeight="1">
       <c r="A202" s="36"/>
       <c r="B202" s="36"/>
       <c r="C202" s="36"/>
@@ -7808,22 +8231,23 @@
       <c r="Q202" s="36"/>
       <c r="R202" s="37"/>
       <c r="S202" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T202" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U202" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V202" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W202" s="36"/>
+    </row>
+    <row r="203" spans="1:23" ht="15.75" customHeight="1">
       <c r="A203" s="36"/>
       <c r="B203" s="36"/>
       <c r="C203" s="36"/>
@@ -7843,22 +8267,23 @@
       <c r="Q203" s="36"/>
       <c r="R203" s="37"/>
       <c r="S203" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T203" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U203" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V203" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W203" s="36"/>
+    </row>
+    <row r="204" spans="1:23" ht="15.75" customHeight="1">
       <c r="A204" s="36"/>
       <c r="B204" s="36"/>
       <c r="C204" s="36"/>
@@ -7878,22 +8303,23 @@
       <c r="Q204" s="36"/>
       <c r="R204" s="37"/>
       <c r="S204" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T204" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U204" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V204" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W204" s="36"/>
+    </row>
+    <row r="205" spans="1:23" ht="15.75" customHeight="1">
       <c r="A205" s="36"/>
       <c r="B205" s="36"/>
       <c r="C205" s="36"/>
@@ -7913,22 +8339,23 @@
       <c r="Q205" s="36"/>
       <c r="R205" s="37"/>
       <c r="S205" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T205" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U205" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V205" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W205" s="36"/>
+    </row>
+    <row r="206" spans="1:23" ht="15.75" customHeight="1">
       <c r="A206" s="36"/>
       <c r="B206" s="36"/>
       <c r="C206" s="36"/>
@@ -7948,22 +8375,23 @@
       <c r="Q206" s="36"/>
       <c r="R206" s="37"/>
       <c r="S206" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T206" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U206" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V206" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W206" s="36"/>
+    </row>
+    <row r="207" spans="1:23" ht="15.75" customHeight="1">
       <c r="A207" s="36"/>
       <c r="B207" s="36"/>
       <c r="C207" s="36"/>
@@ -7983,22 +8411,23 @@
       <c r="Q207" s="36"/>
       <c r="R207" s="37"/>
       <c r="S207" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T207" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U207" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V207" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W207" s="36"/>
+    </row>
+    <row r="208" spans="1:23" ht="15.75" customHeight="1">
       <c r="A208" s="36"/>
       <c r="B208" s="36"/>
       <c r="C208" s="36"/>
@@ -8018,22 +8447,23 @@
       <c r="Q208" s="36"/>
       <c r="R208" s="37"/>
       <c r="S208" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T208" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U208" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V208" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W208" s="36"/>
+    </row>
+    <row r="209" spans="1:23" ht="15.75" customHeight="1">
       <c r="A209" s="36"/>
       <c r="B209" s="36"/>
       <c r="C209" s="36"/>
@@ -8053,22 +8483,23 @@
       <c r="Q209" s="36"/>
       <c r="R209" s="37"/>
       <c r="S209" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T209" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U209" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V209" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W209" s="36"/>
+    </row>
+    <row r="210" spans="1:23" ht="15.75" customHeight="1">
       <c r="A210" s="36"/>
       <c r="B210" s="36"/>
       <c r="C210" s="36"/>
@@ -8088,22 +8519,23 @@
       <c r="Q210" s="36"/>
       <c r="R210" s="37"/>
       <c r="S210" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T210" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U210" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V210" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W210" s="36"/>
+    </row>
+    <row r="211" spans="1:23" ht="15.75" customHeight="1">
       <c r="A211" s="36"/>
       <c r="B211" s="36"/>
       <c r="C211" s="36"/>
@@ -8123,22 +8555,23 @@
       <c r="Q211" s="36"/>
       <c r="R211" s="37"/>
       <c r="S211" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T211" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U211" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V211" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W211" s="36"/>
+    </row>
+    <row r="212" spans="1:23" ht="15.75" customHeight="1">
       <c r="A212" s="36"/>
       <c r="B212" s="36"/>
       <c r="C212" s="36"/>
@@ -8158,22 +8591,23 @@
       <c r="Q212" s="36"/>
       <c r="R212" s="37"/>
       <c r="S212" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T212" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U212" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V212" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W212" s="36"/>
+    </row>
+    <row r="213" spans="1:23" ht="15.75" customHeight="1">
       <c r="A213" s="36"/>
       <c r="B213" s="36"/>
       <c r="C213" s="36"/>
@@ -8193,22 +8627,23 @@
       <c r="Q213" s="36"/>
       <c r="R213" s="37"/>
       <c r="S213" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T213" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U213" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V213" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W213" s="36"/>
+    </row>
+    <row r="214" spans="1:23" ht="15.75" customHeight="1">
       <c r="A214" s="36"/>
       <c r="B214" s="36"/>
       <c r="C214" s="36"/>
@@ -8228,22 +8663,23 @@
       <c r="Q214" s="36"/>
       <c r="R214" s="37"/>
       <c r="S214" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T214" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U214" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V214" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W214" s="36"/>
+    </row>
+    <row r="215" spans="1:23" ht="15.75" customHeight="1">
       <c r="A215" s="36"/>
       <c r="B215" s="36"/>
       <c r="C215" s="36"/>
@@ -8263,22 +8699,23 @@
       <c r="Q215" s="36"/>
       <c r="R215" s="37"/>
       <c r="S215" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T215" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U215" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V215" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W215" s="36"/>
+    </row>
+    <row r="216" spans="1:23" ht="15.75" customHeight="1">
       <c r="A216" s="36"/>
       <c r="B216" s="36"/>
       <c r="C216" s="36"/>
@@ -8298,22 +8735,23 @@
       <c r="Q216" s="36"/>
       <c r="R216" s="37"/>
       <c r="S216" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T216" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U216" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V216" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W216" s="36"/>
+    </row>
+    <row r="217" spans="1:23" ht="15.75" customHeight="1">
       <c r="A217" s="36"/>
       <c r="B217" s="36"/>
       <c r="C217" s="36"/>
@@ -8333,22 +8771,23 @@
       <c r="Q217" s="36"/>
       <c r="R217" s="37"/>
       <c r="S217" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T217" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U217" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V217" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W217" s="36"/>
+    </row>
+    <row r="218" spans="1:23" ht="15.75" customHeight="1">
       <c r="A218" s="36"/>
       <c r="B218" s="36"/>
       <c r="C218" s="36"/>
@@ -8368,22 +8807,23 @@
       <c r="Q218" s="36"/>
       <c r="R218" s="37"/>
       <c r="S218" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T218" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U218" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V218" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W218" s="36"/>
+    </row>
+    <row r="219" spans="1:23" ht="15.75" customHeight="1">
       <c r="A219" s="36"/>
       <c r="B219" s="36"/>
       <c r="C219" s="36"/>
@@ -8403,22 +8843,23 @@
       <c r="Q219" s="36"/>
       <c r="R219" s="37"/>
       <c r="S219" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T219" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U219" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V219" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W219" s="36"/>
+    </row>
+    <row r="220" spans="1:23" ht="15.75" customHeight="1">
       <c r="A220" s="36"/>
       <c r="B220" s="36"/>
       <c r="C220" s="36"/>
@@ -8438,22 +8879,23 @@
       <c r="Q220" s="36"/>
       <c r="R220" s="37"/>
       <c r="S220" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T220" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U220" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V220" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W220" s="36"/>
+    </row>
+    <row r="221" spans="1:23" ht="15.75" customHeight="1">
       <c r="A221" s="36"/>
       <c r="B221" s="36"/>
       <c r="C221" s="36"/>
@@ -8473,22 +8915,23 @@
       <c r="Q221" s="36"/>
       <c r="R221" s="37"/>
       <c r="S221" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T221" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U221" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V221" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="10"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W221" s="36"/>
+    </row>
+    <row r="222" spans="1:23" ht="15.75" customHeight="1">
       <c r="A222" s="36"/>
       <c r="B222" s="36"/>
       <c r="C222" s="36"/>
@@ -8508,22 +8951,23 @@
       <c r="Q222" s="36"/>
       <c r="R222" s="37"/>
       <c r="S222" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T222" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U222" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U222:U251" si="12">+R222</f>
         <v>0</v>
       </c>
       <c r="V222" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" ref="V222:V251" si="13">+CONCATENATE(S222,",",T222,",",E222,",",E222,",",U222)</f>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W222" s="36"/>
+    </row>
+    <row r="223" spans="1:23" ht="15.75" customHeight="1">
       <c r="A223" s="36"/>
       <c r="B223" s="36"/>
       <c r="C223" s="36"/>
@@ -8543,22 +8987,23 @@
       <c r="Q223" s="36"/>
       <c r="R223" s="37"/>
       <c r="S223" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T223" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U223" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V223" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W223" s="36"/>
+    </row>
+    <row r="224" spans="1:23" ht="15.75" customHeight="1">
       <c r="A224" s="36"/>
       <c r="B224" s="36"/>
       <c r="C224" s="36"/>
@@ -8578,22 +9023,23 @@
       <c r="Q224" s="36"/>
       <c r="R224" s="37"/>
       <c r="S224" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T224" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U224" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V224" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W224" s="36"/>
+    </row>
+    <row r="225" spans="1:23" ht="15.75" customHeight="1">
       <c r="A225" s="36"/>
       <c r="B225" s="36"/>
       <c r="C225" s="36"/>
@@ -8613,22 +9059,23 @@
       <c r="Q225" s="36"/>
       <c r="R225" s="37"/>
       <c r="S225" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T225" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U225" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V225" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W225" s="36"/>
+    </row>
+    <row r="226" spans="1:23" ht="15.75" customHeight="1">
       <c r="A226" s="36"/>
       <c r="B226" s="36"/>
       <c r="C226" s="36"/>
@@ -8648,22 +9095,23 @@
       <c r="Q226" s="36"/>
       <c r="R226" s="37"/>
       <c r="S226" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T226" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U226" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V226" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W226" s="36"/>
+    </row>
+    <row r="227" spans="1:23" ht="15.75" customHeight="1">
       <c r="A227" s="36"/>
       <c r="B227" s="36"/>
       <c r="C227" s="36"/>
@@ -8683,22 +9131,23 @@
       <c r="Q227" s="36"/>
       <c r="R227" s="37"/>
       <c r="S227" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T227" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U227" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V227" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W227" s="36"/>
+    </row>
+    <row r="228" spans="1:23" ht="15.75" customHeight="1">
       <c r="A228" s="36"/>
       <c r="B228" s="36"/>
       <c r="C228" s="36"/>
@@ -8718,22 +9167,23 @@
       <c r="Q228" s="36"/>
       <c r="R228" s="37"/>
       <c r="S228" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T228" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U228" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V228" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W228" s="36"/>
+    </row>
+    <row r="229" spans="1:23" ht="15.75" customHeight="1">
       <c r="A229" s="36"/>
       <c r="B229" s="36"/>
       <c r="C229" s="36"/>
@@ -8753,22 +9203,23 @@
       <c r="Q229" s="36"/>
       <c r="R229" s="37"/>
       <c r="S229" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T229" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U229" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V229" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W229" s="36"/>
+    </row>
+    <row r="230" spans="1:23" ht="15.75" customHeight="1">
       <c r="A230" s="36"/>
       <c r="B230" s="36"/>
       <c r="C230" s="36"/>
@@ -8788,22 +9239,23 @@
       <c r="Q230" s="36"/>
       <c r="R230" s="37"/>
       <c r="S230" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T230" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U230" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V230" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W230" s="36"/>
+    </row>
+    <row r="231" spans="1:23" ht="15.75" customHeight="1">
       <c r="A231" s="36"/>
       <c r="B231" s="36"/>
       <c r="C231" s="36"/>
@@ -8823,22 +9275,23 @@
       <c r="Q231" s="36"/>
       <c r="R231" s="37"/>
       <c r="S231" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T231" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U231" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V231" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W231" s="36"/>
+    </row>
+    <row r="232" spans="1:23" ht="15.75" customHeight="1">
       <c r="A232" s="36"/>
       <c r="B232" s="36"/>
       <c r="C232" s="36"/>
@@ -8858,22 +9311,23 @@
       <c r="Q232" s="36"/>
       <c r="R232" s="37"/>
       <c r="S232" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T232" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U232" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V232" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W232" s="36"/>
+    </row>
+    <row r="233" spans="1:23" ht="15.75" customHeight="1">
       <c r="A233" s="36"/>
       <c r="B233" s="36"/>
       <c r="C233" s="36"/>
@@ -8893,22 +9347,23 @@
       <c r="Q233" s="36"/>
       <c r="R233" s="37"/>
       <c r="S233" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T233" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U233" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V233" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W233" s="36"/>
+    </row>
+    <row r="234" spans="1:23" ht="15.75" customHeight="1">
       <c r="A234" s="36"/>
       <c r="B234" s="36"/>
       <c r="C234" s="36"/>
@@ -8928,22 +9383,23 @@
       <c r="Q234" s="36"/>
       <c r="R234" s="37"/>
       <c r="S234" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T234" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U234" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V234" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W234" s="36"/>
+    </row>
+    <row r="235" spans="1:23" ht="15.75" customHeight="1">
       <c r="A235" s="36"/>
       <c r="B235" s="36"/>
       <c r="C235" s="36"/>
@@ -8963,22 +9419,23 @@
       <c r="Q235" s="36"/>
       <c r="R235" s="37"/>
       <c r="S235" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T235" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U235" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V235" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W235" s="36"/>
+    </row>
+    <row r="236" spans="1:23" ht="15.75" customHeight="1">
       <c r="A236" s="36"/>
       <c r="B236" s="36"/>
       <c r="C236" s="36"/>
@@ -8998,22 +9455,23 @@
       <c r="Q236" s="36"/>
       <c r="R236" s="37"/>
       <c r="S236" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T236" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U236" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V236" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W236" s="36"/>
+    </row>
+    <row r="237" spans="1:23" ht="15.75" customHeight="1">
       <c r="A237" s="36"/>
       <c r="B237" s="36"/>
       <c r="C237" s="36"/>
@@ -9033,22 +9491,23 @@
       <c r="Q237" s="36"/>
       <c r="R237" s="37"/>
       <c r="S237" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T237" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U237" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V237" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W237" s="36"/>
+    </row>
+    <row r="238" spans="1:23" ht="15.75" customHeight="1">
       <c r="A238" s="36"/>
       <c r="B238" s="36"/>
       <c r="C238" s="36"/>
@@ -9068,22 +9527,23 @@
       <c r="Q238" s="36"/>
       <c r="R238" s="37"/>
       <c r="S238" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T238" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U238" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V238" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W238" s="36"/>
+    </row>
+    <row r="239" spans="1:23" ht="15.75" customHeight="1">
       <c r="A239" s="36"/>
       <c r="B239" s="36"/>
       <c r="C239" s="36"/>
@@ -9103,22 +9563,23 @@
       <c r="Q239" s="36"/>
       <c r="R239" s="37"/>
       <c r="S239" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T239" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U239" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V239" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W239" s="36"/>
+    </row>
+    <row r="240" spans="1:23" ht="15.75" customHeight="1">
       <c r="A240" s="36"/>
       <c r="B240" s="36"/>
       <c r="C240" s="36"/>
@@ -9138,22 +9599,23 @@
       <c r="Q240" s="36"/>
       <c r="R240" s="37"/>
       <c r="S240" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T240" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U240" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V240" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W240" s="36"/>
+    </row>
+    <row r="241" spans="1:23" ht="15.75" customHeight="1">
       <c r="A241" s="36"/>
       <c r="B241" s="36"/>
       <c r="C241" s="36"/>
@@ -9173,22 +9635,23 @@
       <c r="Q241" s="36"/>
       <c r="R241" s="37"/>
       <c r="S241" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T241" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U241" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V241" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W241" s="36"/>
+    </row>
+    <row r="242" spans="1:23" ht="15.75" customHeight="1">
       <c r="A242" s="36"/>
       <c r="B242" s="36"/>
       <c r="C242" s="36"/>
@@ -9208,22 +9671,23 @@
       <c r="Q242" s="36"/>
       <c r="R242" s="37"/>
       <c r="S242" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T242" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U242" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V242" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W242" s="36"/>
+    </row>
+    <row r="243" spans="1:23" ht="15.75" customHeight="1">
       <c r="A243" s="36"/>
       <c r="B243" s="36"/>
       <c r="C243" s="36"/>
@@ -9243,22 +9707,23 @@
       <c r="Q243" s="36"/>
       <c r="R243" s="37"/>
       <c r="S243" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T243" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U243" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V243" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W243" s="36"/>
+    </row>
+    <row r="244" spans="1:23" ht="15.75" customHeight="1">
       <c r="A244" s="36"/>
       <c r="B244" s="36"/>
       <c r="C244" s="36"/>
@@ -9278,22 +9743,23 @@
       <c r="Q244" s="36"/>
       <c r="R244" s="37"/>
       <c r="S244" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T244" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U244" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V244" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W244" s="36"/>
+    </row>
+    <row r="245" spans="1:23" ht="15.75" customHeight="1">
       <c r="A245" s="36"/>
       <c r="B245" s="36"/>
       <c r="C245" s="36"/>
@@ -9313,22 +9779,23 @@
       <c r="Q245" s="36"/>
       <c r="R245" s="37"/>
       <c r="S245" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T245" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U245" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V245" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W245" s="36"/>
+    </row>
+    <row r="246" spans="1:23" ht="15.75" customHeight="1">
       <c r="A246" s="36"/>
       <c r="B246" s="36"/>
       <c r="C246" s="36"/>
@@ -9348,22 +9815,23 @@
       <c r="Q246" s="36"/>
       <c r="R246" s="37"/>
       <c r="S246" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T246" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U246" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V246" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W246" s="36"/>
+    </row>
+    <row r="247" spans="1:23" ht="15.75" customHeight="1">
       <c r="A247" s="36"/>
       <c r="B247" s="36"/>
       <c r="C247" s="36"/>
@@ -9383,22 +9851,23 @@
       <c r="Q247" s="36"/>
       <c r="R247" s="37"/>
       <c r="S247" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T247" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U247" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V247" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W247" s="36"/>
+    </row>
+    <row r="248" spans="1:23" ht="15.75" customHeight="1">
       <c r="A248" s="36"/>
       <c r="B248" s="36"/>
       <c r="C248" s="36"/>
@@ -9418,22 +9887,23 @@
       <c r="Q248" s="36"/>
       <c r="R248" s="37"/>
       <c r="S248" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T248" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U248" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V248" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W248" s="36"/>
+    </row>
+    <row r="249" spans="1:23" ht="15.75" customHeight="1">
       <c r="A249" s="36"/>
       <c r="B249" s="36"/>
       <c r="C249" s="36"/>
@@ -9453,22 +9923,23 @@
       <c r="Q249" s="36"/>
       <c r="R249" s="37"/>
       <c r="S249" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T249" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U249" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V249" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W249" s="36"/>
+    </row>
+    <row r="250" spans="1:23" ht="15.75" customHeight="1">
       <c r="A250" s="36"/>
       <c r="B250" s="36"/>
       <c r="C250" s="36"/>
@@ -9488,22 +9959,23 @@
       <c r="Q250" s="36"/>
       <c r="R250" s="37"/>
       <c r="S250" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T250" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U250" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V250" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W250" s="36"/>
+    </row>
+    <row r="251" spans="1:23" ht="15.75" customHeight="1">
       <c r="A251" s="36"/>
       <c r="B251" s="36"/>
       <c r="C251" s="36"/>
@@ -9523,22 +9995,23 @@
       <c r="Q251" s="36"/>
       <c r="R251" s="37"/>
       <c r="S251" s="14" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="T251" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U251" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V251" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>014,3,,,0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:22" ht="15.75" customHeight="1">
+        <f t="shared" si="13"/>
+        <v>015,1,,,0</v>
+      </c>
+      <c r="W251" s="36"/>
+    </row>
+    <row r="252" spans="1:23" ht="15.75" customHeight="1">
       <c r="A252" s="39"/>
       <c r="B252" s="39"/>
       <c r="C252" s="39"/>
@@ -9558,7 +10031,7 @@
       <c r="Q252" s="39"/>
       <c r="R252" s="40"/>
     </row>
-    <row r="253" spans="1:22" ht="15.75" customHeight="1">
+    <row r="253" spans="1:23" ht="15.75" customHeight="1">
       <c r="A253" s="39"/>
       <c r="B253" s="39"/>
       <c r="C253" s="39"/>
@@ -9578,7 +10051,7 @@
       <c r="Q253" s="39"/>
       <c r="R253" s="40"/>
     </row>
-    <row r="254" spans="1:22" ht="15.75" customHeight="1">
+    <row r="254" spans="1:23" ht="15.75" customHeight="1">
       <c r="A254" s="39"/>
       <c r="B254" s="39"/>
       <c r="C254" s="39"/>
@@ -9598,7 +10071,7 @@
       <c r="Q254" s="39"/>
       <c r="R254" s="40"/>
     </row>
-    <row r="255" spans="1:22" ht="15.75" customHeight="1">
+    <row r="255" spans="1:23" ht="15.75" customHeight="1">
       <c r="A255" s="39"/>
       <c r="B255" s="39"/>
       <c r="C255" s="39"/>
@@ -9618,7 +10091,7 @@
       <c r="Q255" s="39"/>
       <c r="R255" s="40"/>
     </row>
-    <row r="256" spans="1:22" ht="15.75" customHeight="1">
+    <row r="256" spans="1:23" ht="15.75" customHeight="1">
       <c r="A256" s="39"/>
       <c r="B256" s="39"/>
       <c r="C256" s="39"/>
@@ -24531,392 +25004,392 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/FilesOrganizerIDOffice/src/main/resources/una/filesorganizeridoffice/xlsx/Formato de Corte Funcionarios.xlsx
+++ b/FilesOrganizerIDOffice/src/main/resources/una/filesorganizeridoffice/xlsx/Formato de Corte Funcionarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N00148095\Desktop\Git\FileOrganizer\FilesOrganizerIDOffice\src\main\resources\una\filesorganizeridoffice\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\FileOrganizer\FilesOrganizerIDOffice\src\main\resources\una\filesorganizeridoffice\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2EFC7A-DE25-42F6-9BB6-78F2A6913513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CE6E81-AC8A-4AAC-BB1B-078648E69422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -700,7 +700,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -916,11 +916,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:V251"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -1070,15 +1070,15 @@
         <v>100</v>
       </c>
       <c r="T3" s="15">
-        <f>+IF(D3="Cedula de Identidad",1,1)</f>
+        <f>+IF(D3="Cédula de Identidad",1,1)</f>
         <v>1</v>
       </c>
       <c r="U3" s="16">
-        <f t="shared" ref="U3:U251" si="0">+R3</f>
+        <f t="shared" ref="U3:U29" si="0">+R3</f>
         <v>0</v>
       </c>
       <c r="V3" s="15" t="str">
-        <f t="shared" ref="V3:V251" si="1">+CONCATENATE(S3,",",T3,",",E3,",",E3,",",U3)</f>
+        <f t="shared" ref="V3:V29" si="1">+CONCATENATE(S3,",",T3,",",E3,",",E3,",",U3)</f>
         <v>015,1,,,0</v>
       </c>
       <c r="W3" s="10"/>
@@ -1106,7 +1106,7 @@
         <v>100</v>
       </c>
       <c r="T4" s="15">
-        <f t="shared" ref="T4:T67" si="2">+IF(D4="Cedula de Identidad",1,1)</f>
+        <f t="shared" ref="T4:T67" si="2">+IF(D4="Cédula de Identidad",1,1)</f>
         <v>1</v>
       </c>
       <c r="U4" s="16">
@@ -1735,7 +1735,7 @@
       <c r="A22" s="17"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
       <c r="G22" s="43"/>
@@ -1771,7 +1771,7 @@
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="8"/>
@@ -1807,7 +1807,7 @@
       <c r="A24" s="17"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="42"/>
       <c r="F24" s="42"/>
       <c r="G24" s="41"/>
@@ -1843,7 +1843,7 @@
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="19"/>
@@ -1879,7 +1879,7 @@
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="19"/>
@@ -1915,7 +1915,7 @@
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="19"/>
@@ -1951,7 +1951,7 @@
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="19"/>
@@ -1987,7 +1987,7 @@
       <c r="A29" s="17"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
       <c r="G29" s="41"/>
@@ -2023,7 +2023,7 @@
       <c r="A30" s="17"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
       <c r="G30" s="41"/>
@@ -2059,7 +2059,7 @@
       <c r="A31" s="17"/>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
       <c r="G31" s="41"/>
@@ -2095,7 +2095,7 @@
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="19"/>
@@ -2131,7 +2131,7 @@
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="19"/>
@@ -2167,7 +2167,7 @@
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
       <c r="G34" s="19"/>
@@ -2203,7 +2203,7 @@
       <c r="A35" s="17"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="42"/>
       <c r="F35" s="42"/>
       <c r="G35" s="41"/>
@@ -2239,7 +2239,7 @@
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="26"/>
@@ -2275,7 +2275,7 @@
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
       <c r="G37" s="26"/>
@@ -2311,7 +2311,7 @@
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
       <c r="G38" s="17"/>
@@ -2347,7 +2347,7 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
       <c r="G39" s="33"/>
@@ -2383,7 +2383,7 @@
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="27"/>
       <c r="F40" s="35"/>
       <c r="G40" s="26"/>
@@ -2419,7 +2419,7 @@
       <c r="A41" s="33"/>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="32"/>
       <c r="F41" s="27"/>
       <c r="G41" s="33"/>
@@ -2455,7 +2455,7 @@
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
       <c r="G42" s="26"/>
@@ -2491,7 +2491,7 @@
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
       <c r="G43" s="26"/>
@@ -2527,7 +2527,7 @@
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="27"/>
       <c r="F44" s="27"/>
       <c r="G44" s="26"/>
@@ -2563,7 +2563,7 @@
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
       <c r="G45" s="26"/>
@@ -2599,7 +2599,7 @@
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="27"/>
       <c r="F46" s="27"/>
       <c r="G46" s="26"/>
@@ -2635,7 +2635,7 @@
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
+      <c r="D47" s="8"/>
       <c r="E47" s="27"/>
       <c r="F47" s="27"/>
       <c r="G47" s="26"/>
@@ -2671,7 +2671,7 @@
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="27"/>
       <c r="F48" s="27"/>
       <c r="G48" s="26"/>
@@ -2707,7 +2707,7 @@
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
       <c r="G49" s="26"/>
@@ -2743,7 +2743,7 @@
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
       <c r="G50" s="33"/>
@@ -2779,7 +2779,7 @@
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
+      <c r="D51" s="8"/>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
       <c r="G51" s="33"/>
@@ -2815,7 +2815,7 @@
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="27"/>
       <c r="F52" s="27"/>
       <c r="G52" s="26"/>
@@ -2851,7 +2851,7 @@
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
       <c r="G53" s="26"/>
@@ -2887,7 +2887,7 @@
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="D54" s="8"/>
       <c r="E54" s="30"/>
       <c r="F54" s="30"/>
       <c r="G54" s="17"/>
@@ -2923,7 +2923,7 @@
       <c r="A55" s="26"/>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="D55" s="8"/>
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
       <c r="G55" s="26"/>
@@ -2959,7 +2959,7 @@
       <c r="A56" s="33"/>
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
+      <c r="D56" s="8"/>
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
       <c r="G56" s="33"/>
@@ -2995,7 +2995,7 @@
       <c r="A57" s="33"/>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="32"/>
       <c r="F57" s="32"/>
       <c r="G57" s="33"/>
@@ -3031,7 +3031,7 @@
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
-      <c r="D58" s="33"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
       <c r="G58" s="36"/>
@@ -3067,7 +3067,7 @@
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
-      <c r="D59" s="33"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
       <c r="G59" s="36"/>
@@ -3103,7 +3103,7 @@
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
-      <c r="D60" s="33"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
       <c r="G60" s="36"/>
@@ -3139,7 +3139,7 @@
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
-      <c r="D61" s="33"/>
+      <c r="D61" s="8"/>
       <c r="E61" s="37"/>
       <c r="F61" s="37"/>
       <c r="G61" s="36"/>
@@ -3175,7 +3175,7 @@
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
-      <c r="D62" s="33"/>
+      <c r="D62" s="8"/>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
       <c r="G62" s="36"/>
@@ -3211,7 +3211,7 @@
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
-      <c r="D63" s="33"/>
+      <c r="D63" s="8"/>
       <c r="E63" s="37"/>
       <c r="F63" s="37"/>
       <c r="G63" s="36"/>
@@ -3247,7 +3247,7 @@
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="36"/>
-      <c r="D64" s="33"/>
+      <c r="D64" s="8"/>
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
       <c r="G64" s="36"/>
@@ -3283,7 +3283,7 @@
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
-      <c r="D65" s="33"/>
+      <c r="D65" s="8"/>
       <c r="E65" s="37"/>
       <c r="F65" s="37"/>
       <c r="G65" s="36"/>
@@ -3319,7 +3319,7 @@
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
-      <c r="D66" s="33"/>
+      <c r="D66" s="8"/>
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
       <c r="G66" s="36"/>
@@ -3355,7 +3355,7 @@
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
-      <c r="D67" s="33"/>
+      <c r="D67" s="8"/>
       <c r="E67" s="37"/>
       <c r="F67" s="37"/>
       <c r="G67" s="36"/>
@@ -3391,7 +3391,7 @@
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
-      <c r="D68" s="33"/>
+      <c r="D68" s="8"/>
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
       <c r="G68" s="36"/>
@@ -3410,7 +3410,7 @@
         <v>100</v>
       </c>
       <c r="T68" s="15">
-        <f t="shared" ref="T68:T131" si="5">+IF(D68="Cedula de Identidad",1,1)</f>
+        <f t="shared" ref="T68:T131" si="5">+IF(D68="Cédula de Identidad",1,1)</f>
         <v>1</v>
       </c>
       <c r="U68" s="16">
@@ -3427,7 +3427,7 @@
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
-      <c r="D69" s="33"/>
+      <c r="D69" s="8"/>
       <c r="E69" s="37"/>
       <c r="F69" s="37"/>
       <c r="G69" s="36"/>
@@ -3463,7 +3463,7 @@
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
-      <c r="D70" s="33"/>
+      <c r="D70" s="8"/>
       <c r="E70" s="37"/>
       <c r="F70" s="37"/>
       <c r="G70" s="36"/>
@@ -3499,7 +3499,7 @@
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
-      <c r="D71" s="33"/>
+      <c r="D71" s="8"/>
       <c r="E71" s="37"/>
       <c r="F71" s="37"/>
       <c r="G71" s="36"/>
@@ -3535,7 +3535,7 @@
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
-      <c r="D72" s="33"/>
+      <c r="D72" s="8"/>
       <c r="E72" s="37"/>
       <c r="F72" s="37"/>
       <c r="G72" s="36"/>
@@ -3571,7 +3571,7 @@
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
-      <c r="D73" s="33"/>
+      <c r="D73" s="8"/>
       <c r="E73" s="37"/>
       <c r="F73" s="37"/>
       <c r="G73" s="36"/>
@@ -3607,7 +3607,7 @@
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
-      <c r="D74" s="33"/>
+      <c r="D74" s="8"/>
       <c r="E74" s="37"/>
       <c r="F74" s="37"/>
       <c r="G74" s="36"/>
@@ -3643,7 +3643,7 @@
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
       <c r="C75" s="36"/>
-      <c r="D75" s="33"/>
+      <c r="D75" s="8"/>
       <c r="E75" s="37"/>
       <c r="F75" s="37"/>
       <c r="G75" s="36"/>
@@ -3679,7 +3679,7 @@
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
-      <c r="D76" s="33"/>
+      <c r="D76" s="8"/>
       <c r="E76" s="37"/>
       <c r="F76" s="37"/>
       <c r="G76" s="36"/>
@@ -3715,7 +3715,7 @@
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
-      <c r="D77" s="33"/>
+      <c r="D77" s="8"/>
       <c r="E77" s="37"/>
       <c r="F77" s="37"/>
       <c r="G77" s="36"/>
@@ -3751,7 +3751,7 @@
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
-      <c r="D78" s="33"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="37"/>
       <c r="F78" s="37"/>
       <c r="G78" s="36"/>
@@ -3787,7 +3787,7 @@
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
-      <c r="D79" s="33"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="37"/>
       <c r="F79" s="37"/>
       <c r="G79" s="36"/>
@@ -3823,7 +3823,7 @@
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
-      <c r="D80" s="33"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="37"/>
       <c r="F80" s="37"/>
       <c r="G80" s="36"/>
@@ -3859,7 +3859,7 @@
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
-      <c r="D81" s="33"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="37"/>
       <c r="F81" s="37"/>
       <c r="G81" s="36"/>
@@ -3895,7 +3895,7 @@
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
-      <c r="D82" s="33"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="37"/>
       <c r="F82" s="37"/>
       <c r="G82" s="36"/>
@@ -3931,7 +3931,7 @@
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
-      <c r="D83" s="33"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="37"/>
       <c r="F83" s="37"/>
       <c r="G83" s="36"/>
@@ -3967,7 +3967,7 @@
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
-      <c r="D84" s="33"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="37"/>
       <c r="F84" s="37"/>
       <c r="G84" s="36"/>
@@ -4003,7 +4003,7 @@
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
-      <c r="D85" s="33"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="37"/>
       <c r="F85" s="37"/>
       <c r="G85" s="36"/>
@@ -4039,7 +4039,7 @@
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
-      <c r="D86" s="33"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="37"/>
       <c r="F86" s="37"/>
       <c r="G86" s="36"/>
@@ -4075,7 +4075,7 @@
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
-      <c r="D87" s="33"/>
+      <c r="D87" s="8"/>
       <c r="E87" s="37"/>
       <c r="F87" s="37"/>
       <c r="G87" s="36"/>
@@ -4111,7 +4111,7 @@
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
-      <c r="D88" s="33"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="37"/>
       <c r="F88" s="37"/>
       <c r="G88" s="36"/>
@@ -4147,7 +4147,7 @@
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
-      <c r="D89" s="33"/>
+      <c r="D89" s="8"/>
       <c r="E89" s="37"/>
       <c r="F89" s="37"/>
       <c r="G89" s="36"/>
@@ -4183,7 +4183,7 @@
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
-      <c r="D90" s="33"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="37"/>
       <c r="F90" s="37"/>
       <c r="G90" s="36"/>
@@ -4219,7 +4219,7 @@
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
-      <c r="D91" s="33"/>
+      <c r="D91" s="8"/>
       <c r="E91" s="37"/>
       <c r="F91" s="37"/>
       <c r="G91" s="36"/>
@@ -4255,7 +4255,7 @@
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
-      <c r="D92" s="33"/>
+      <c r="D92" s="8"/>
       <c r="E92" s="37"/>
       <c r="F92" s="37"/>
       <c r="G92" s="36"/>
@@ -4291,7 +4291,7 @@
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
       <c r="C93" s="36"/>
-      <c r="D93" s="33"/>
+      <c r="D93" s="8"/>
       <c r="E93" s="37"/>
       <c r="F93" s="37"/>
       <c r="G93" s="36"/>
@@ -4327,7 +4327,7 @@
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
       <c r="C94" s="36"/>
-      <c r="D94" s="33"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="37"/>
       <c r="F94" s="37"/>
       <c r="G94" s="36"/>
@@ -4363,7 +4363,7 @@
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
-      <c r="D95" s="33"/>
+      <c r="D95" s="8"/>
       <c r="E95" s="37"/>
       <c r="F95" s="37"/>
       <c r="G95" s="36"/>
@@ -4399,7 +4399,7 @@
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
-      <c r="D96" s="33"/>
+      <c r="D96" s="8"/>
       <c r="E96" s="37"/>
       <c r="F96" s="37"/>
       <c r="G96" s="36"/>
@@ -4435,7 +4435,7 @@
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
-      <c r="D97" s="33"/>
+      <c r="D97" s="8"/>
       <c r="E97" s="37"/>
       <c r="F97" s="37"/>
       <c r="G97" s="36"/>
@@ -4471,7 +4471,7 @@
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
-      <c r="D98" s="33"/>
+      <c r="D98" s="8"/>
       <c r="E98" s="37"/>
       <c r="F98" s="37"/>
       <c r="G98" s="36"/>
@@ -4507,7 +4507,7 @@
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
-      <c r="D99" s="33"/>
+      <c r="D99" s="8"/>
       <c r="E99" s="37"/>
       <c r="F99" s="37"/>
       <c r="G99" s="36"/>
@@ -4543,7 +4543,7 @@
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
-      <c r="D100" s="33"/>
+      <c r="D100" s="8"/>
       <c r="E100" s="37"/>
       <c r="F100" s="37"/>
       <c r="G100" s="36"/>
@@ -4579,7 +4579,7 @@
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
-      <c r="D101" s="33"/>
+      <c r="D101" s="8"/>
       <c r="E101" s="37"/>
       <c r="F101" s="37"/>
       <c r="G101" s="36"/>
@@ -4615,7 +4615,7 @@
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
-      <c r="D102" s="33"/>
+      <c r="D102" s="8"/>
       <c r="E102" s="37"/>
       <c r="F102" s="37"/>
       <c r="G102" s="36"/>
@@ -4651,7 +4651,7 @@
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
-      <c r="D103" s="33"/>
+      <c r="D103" s="8"/>
       <c r="E103" s="37"/>
       <c r="F103" s="37"/>
       <c r="G103" s="36"/>
@@ -4687,7 +4687,7 @@
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
-      <c r="D104" s="33"/>
+      <c r="D104" s="8"/>
       <c r="E104" s="37"/>
       <c r="F104" s="37"/>
       <c r="G104" s="36"/>
@@ -4723,7 +4723,7 @@
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
-      <c r="D105" s="33"/>
+      <c r="D105" s="8"/>
       <c r="E105" s="37"/>
       <c r="F105" s="37"/>
       <c r="G105" s="36"/>
@@ -4759,7 +4759,7 @@
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
       <c r="C106" s="36"/>
-      <c r="D106" s="33"/>
+      <c r="D106" s="8"/>
       <c r="E106" s="37"/>
       <c r="F106" s="37"/>
       <c r="G106" s="36"/>
@@ -4795,7 +4795,7 @@
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
       <c r="C107" s="36"/>
-      <c r="D107" s="33"/>
+      <c r="D107" s="8"/>
       <c r="E107" s="37"/>
       <c r="F107" s="37"/>
       <c r="G107" s="36"/>
@@ -4831,7 +4831,7 @@
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
-      <c r="D108" s="33"/>
+      <c r="D108" s="8"/>
       <c r="E108" s="37"/>
       <c r="F108" s="37"/>
       <c r="G108" s="36"/>
@@ -4867,7 +4867,7 @@
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
-      <c r="D109" s="33"/>
+      <c r="D109" s="8"/>
       <c r="E109" s="37"/>
       <c r="F109" s="37"/>
       <c r="G109" s="36"/>
@@ -4903,7 +4903,7 @@
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
-      <c r="D110" s="33"/>
+      <c r="D110" s="8"/>
       <c r="E110" s="37"/>
       <c r="F110" s="37"/>
       <c r="G110" s="36"/>
@@ -4939,7 +4939,7 @@
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
-      <c r="D111" s="33"/>
+      <c r="D111" s="8"/>
       <c r="E111" s="37"/>
       <c r="F111" s="37"/>
       <c r="G111" s="36"/>
@@ -4975,7 +4975,7 @@
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
-      <c r="D112" s="33"/>
+      <c r="D112" s="8"/>
       <c r="E112" s="37"/>
       <c r="F112" s="37"/>
       <c r="G112" s="36"/>
@@ -5011,7 +5011,7 @@
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
-      <c r="D113" s="33"/>
+      <c r="D113" s="8"/>
       <c r="E113" s="37"/>
       <c r="F113" s="37"/>
       <c r="G113" s="36"/>
@@ -5047,7 +5047,7 @@
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
-      <c r="D114" s="33"/>
+      <c r="D114" s="8"/>
       <c r="E114" s="37"/>
       <c r="F114" s="37"/>
       <c r="G114" s="36"/>
@@ -5083,7 +5083,7 @@
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
-      <c r="D115" s="33"/>
+      <c r="D115" s="8"/>
       <c r="E115" s="37"/>
       <c r="F115" s="37"/>
       <c r="G115" s="36"/>
@@ -5119,7 +5119,7 @@
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
-      <c r="D116" s="33"/>
+      <c r="D116" s="8"/>
       <c r="E116" s="37"/>
       <c r="F116" s="37"/>
       <c r="G116" s="36"/>
@@ -5155,7 +5155,7 @@
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
       <c r="C117" s="36"/>
-      <c r="D117" s="33"/>
+      <c r="D117" s="8"/>
       <c r="E117" s="37"/>
       <c r="F117" s="37"/>
       <c r="G117" s="36"/>
@@ -5191,7 +5191,7 @@
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
       <c r="C118" s="36"/>
-      <c r="D118" s="33"/>
+      <c r="D118" s="8"/>
       <c r="E118" s="37"/>
       <c r="F118" s="37"/>
       <c r="G118" s="36"/>
@@ -5227,7 +5227,7 @@
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
-      <c r="D119" s="33"/>
+      <c r="D119" s="8"/>
       <c r="E119" s="37"/>
       <c r="F119" s="37"/>
       <c r="G119" s="36"/>
@@ -5263,7 +5263,7 @@
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
       <c r="C120" s="36"/>
-      <c r="D120" s="33"/>
+      <c r="D120" s="8"/>
       <c r="E120" s="37"/>
       <c r="F120" s="37"/>
       <c r="G120" s="36"/>
@@ -5299,7 +5299,7 @@
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
       <c r="C121" s="36"/>
-      <c r="D121" s="33"/>
+      <c r="D121" s="8"/>
       <c r="E121" s="37"/>
       <c r="F121" s="37"/>
       <c r="G121" s="36"/>
@@ -5335,7 +5335,7 @@
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="36"/>
-      <c r="D122" s="33"/>
+      <c r="D122" s="8"/>
       <c r="E122" s="37"/>
       <c r="F122" s="37"/>
       <c r="G122" s="36"/>
@@ -5371,7 +5371,7 @@
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
       <c r="C123" s="36"/>
-      <c r="D123" s="33"/>
+      <c r="D123" s="8"/>
       <c r="E123" s="37"/>
       <c r="F123" s="37"/>
       <c r="G123" s="36"/>
@@ -5407,7 +5407,7 @@
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
-      <c r="D124" s="33"/>
+      <c r="D124" s="8"/>
       <c r="E124" s="37"/>
       <c r="F124" s="37"/>
       <c r="G124" s="36"/>
@@ -5443,7 +5443,7 @@
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
       <c r="C125" s="36"/>
-      <c r="D125" s="33"/>
+      <c r="D125" s="8"/>
       <c r="E125" s="37"/>
       <c r="F125" s="37"/>
       <c r="G125" s="36"/>
@@ -5479,7 +5479,7 @@
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
-      <c r="D126" s="33"/>
+      <c r="D126" s="8"/>
       <c r="E126" s="37"/>
       <c r="F126" s="37"/>
       <c r="G126" s="36"/>
@@ -5515,7 +5515,7 @@
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
       <c r="C127" s="36"/>
-      <c r="D127" s="33"/>
+      <c r="D127" s="8"/>
       <c r="E127" s="37"/>
       <c r="F127" s="37"/>
       <c r="G127" s="36"/>
@@ -5551,7 +5551,7 @@
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
-      <c r="D128" s="33"/>
+      <c r="D128" s="8"/>
       <c r="E128" s="37"/>
       <c r="F128" s="37"/>
       <c r="G128" s="36"/>
@@ -5587,7 +5587,7 @@
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
-      <c r="D129" s="33"/>
+      <c r="D129" s="8"/>
       <c r="E129" s="37"/>
       <c r="F129" s="37"/>
       <c r="G129" s="36"/>
@@ -5623,7 +5623,7 @@
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
-      <c r="D130" s="33"/>
+      <c r="D130" s="8"/>
       <c r="E130" s="37"/>
       <c r="F130" s="37"/>
       <c r="G130" s="36"/>
@@ -5659,7 +5659,7 @@
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
-      <c r="D131" s="33"/>
+      <c r="D131" s="8"/>
       <c r="E131" s="37"/>
       <c r="F131" s="37"/>
       <c r="G131" s="36"/>
@@ -5695,7 +5695,7 @@
       <c r="A132" s="36"/>
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
-      <c r="D132" s="33"/>
+      <c r="D132" s="8"/>
       <c r="E132" s="37"/>
       <c r="F132" s="37"/>
       <c r="G132" s="36"/>
@@ -5714,7 +5714,7 @@
         <v>100</v>
       </c>
       <c r="T132" s="15">
-        <f t="shared" ref="T132:T195" si="8">+IF(D132="Cedula de Identidad",1,1)</f>
+        <f t="shared" ref="T132:T195" si="8">+IF(D132="Cédula de Identidad",1,1)</f>
         <v>1</v>
       </c>
       <c r="U132" s="16">
@@ -5731,7 +5731,7 @@
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
-      <c r="D133" s="33"/>
+      <c r="D133" s="8"/>
       <c r="E133" s="37"/>
       <c r="F133" s="37"/>
       <c r="G133" s="36"/>
@@ -5767,7 +5767,7 @@
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
-      <c r="D134" s="33"/>
+      <c r="D134" s="8"/>
       <c r="E134" s="37"/>
       <c r="F134" s="37"/>
       <c r="G134" s="36"/>
@@ -5803,7 +5803,7 @@
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
       <c r="C135" s="36"/>
-      <c r="D135" s="33"/>
+      <c r="D135" s="8"/>
       <c r="E135" s="37"/>
       <c r="F135" s="37"/>
       <c r="G135" s="36"/>
@@ -5839,7 +5839,7 @@
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="36"/>
-      <c r="D136" s="33"/>
+      <c r="D136" s="8"/>
       <c r="E136" s="37"/>
       <c r="F136" s="37"/>
       <c r="G136" s="36"/>
@@ -5875,7 +5875,7 @@
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
-      <c r="D137" s="33"/>
+      <c r="D137" s="8"/>
       <c r="E137" s="37"/>
       <c r="F137" s="37"/>
       <c r="G137" s="36"/>
@@ -5911,7 +5911,7 @@
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
       <c r="C138" s="36"/>
-      <c r="D138" s="33"/>
+      <c r="D138" s="8"/>
       <c r="E138" s="37"/>
       <c r="F138" s="37"/>
       <c r="G138" s="36"/>
@@ -5947,7 +5947,7 @@
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
       <c r="C139" s="36"/>
-      <c r="D139" s="33"/>
+      <c r="D139" s="8"/>
       <c r="E139" s="37"/>
       <c r="F139" s="37"/>
       <c r="G139" s="36"/>
@@ -5983,7 +5983,7 @@
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
       <c r="C140" s="36"/>
-      <c r="D140" s="33"/>
+      <c r="D140" s="8"/>
       <c r="E140" s="37"/>
       <c r="F140" s="37"/>
       <c r="G140" s="36"/>
@@ -6019,7 +6019,7 @@
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
       <c r="C141" s="36"/>
-      <c r="D141" s="33"/>
+      <c r="D141" s="8"/>
       <c r="E141" s="37"/>
       <c r="F141" s="37"/>
       <c r="G141" s="36"/>
@@ -6055,7 +6055,7 @@
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
       <c r="C142" s="36"/>
-      <c r="D142" s="33"/>
+      <c r="D142" s="8"/>
       <c r="E142" s="37"/>
       <c r="F142" s="37"/>
       <c r="G142" s="36"/>
@@ -6091,7 +6091,7 @@
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
-      <c r="D143" s="33"/>
+      <c r="D143" s="8"/>
       <c r="E143" s="37"/>
       <c r="F143" s="37"/>
       <c r="G143" s="36"/>
@@ -6127,7 +6127,7 @@
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
-      <c r="D144" s="33"/>
+      <c r="D144" s="8"/>
       <c r="E144" s="37"/>
       <c r="F144" s="37"/>
       <c r="G144" s="36"/>
@@ -6163,7 +6163,7 @@
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
-      <c r="D145" s="33"/>
+      <c r="D145" s="8"/>
       <c r="E145" s="37"/>
       <c r="F145" s="37"/>
       <c r="G145" s="36"/>
@@ -6199,7 +6199,7 @@
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
       <c r="C146" s="36"/>
-      <c r="D146" s="33"/>
+      <c r="D146" s="8"/>
       <c r="E146" s="37"/>
       <c r="F146" s="37"/>
       <c r="G146" s="36"/>
@@ -6235,7 +6235,7 @@
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
-      <c r="D147" s="33"/>
+      <c r="D147" s="8"/>
       <c r="E147" s="37"/>
       <c r="F147" s="37"/>
       <c r="G147" s="36"/>
@@ -6271,7 +6271,7 @@
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
       <c r="C148" s="36"/>
-      <c r="D148" s="33"/>
+      <c r="D148" s="8"/>
       <c r="E148" s="37"/>
       <c r="F148" s="37"/>
       <c r="G148" s="36"/>
@@ -6307,7 +6307,7 @@
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
       <c r="C149" s="36"/>
-      <c r="D149" s="33"/>
+      <c r="D149" s="8"/>
       <c r="E149" s="37"/>
       <c r="F149" s="37"/>
       <c r="G149" s="36"/>
@@ -6343,7 +6343,7 @@
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
       <c r="C150" s="36"/>
-      <c r="D150" s="33"/>
+      <c r="D150" s="8"/>
       <c r="E150" s="37"/>
       <c r="F150" s="37"/>
       <c r="G150" s="36"/>
@@ -6379,7 +6379,7 @@
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
       <c r="C151" s="36"/>
-      <c r="D151" s="33"/>
+      <c r="D151" s="8"/>
       <c r="E151" s="37"/>
       <c r="F151" s="37"/>
       <c r="G151" s="36"/>
@@ -6415,7 +6415,7 @@
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
       <c r="C152" s="36"/>
-      <c r="D152" s="33"/>
+      <c r="D152" s="8"/>
       <c r="E152" s="37"/>
       <c r="F152" s="37"/>
       <c r="G152" s="36"/>
@@ -6451,7 +6451,7 @@
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
-      <c r="D153" s="33"/>
+      <c r="D153" s="8"/>
       <c r="E153" s="37"/>
       <c r="F153" s="37"/>
       <c r="G153" s="36"/>
@@ -6487,7 +6487,7 @@
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
       <c r="C154" s="36"/>
-      <c r="D154" s="33"/>
+      <c r="D154" s="8"/>
       <c r="E154" s="37"/>
       <c r="F154" s="37"/>
       <c r="G154" s="36"/>
@@ -6523,7 +6523,7 @@
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
-      <c r="D155" s="33"/>
+      <c r="D155" s="8"/>
       <c r="E155" s="37"/>
       <c r="F155" s="37"/>
       <c r="G155" s="36"/>
@@ -6559,7 +6559,7 @@
       <c r="A156" s="36"/>
       <c r="B156" s="36"/>
       <c r="C156" s="36"/>
-      <c r="D156" s="33"/>
+      <c r="D156" s="8"/>
       <c r="E156" s="37"/>
       <c r="F156" s="37"/>
       <c r="G156" s="36"/>
@@ -6595,7 +6595,7 @@
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
       <c r="C157" s="36"/>
-      <c r="D157" s="33"/>
+      <c r="D157" s="8"/>
       <c r="E157" s="37"/>
       <c r="F157" s="37"/>
       <c r="G157" s="36"/>
@@ -6631,7 +6631,7 @@
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
       <c r="C158" s="36"/>
-      <c r="D158" s="33"/>
+      <c r="D158" s="8"/>
       <c r="E158" s="37"/>
       <c r="F158" s="37"/>
       <c r="G158" s="36"/>
@@ -6667,7 +6667,7 @@
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
       <c r="C159" s="36"/>
-      <c r="D159" s="33"/>
+      <c r="D159" s="8"/>
       <c r="E159" s="37"/>
       <c r="F159" s="37"/>
       <c r="G159" s="36"/>
@@ -6703,7 +6703,7 @@
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
       <c r="C160" s="36"/>
-      <c r="D160" s="33"/>
+      <c r="D160" s="8"/>
       <c r="E160" s="37"/>
       <c r="F160" s="37"/>
       <c r="G160" s="36"/>
@@ -6739,7 +6739,7 @@
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
       <c r="C161" s="36"/>
-      <c r="D161" s="33"/>
+      <c r="D161" s="8"/>
       <c r="E161" s="37"/>
       <c r="F161" s="37"/>
       <c r="G161" s="36"/>
@@ -6775,7 +6775,7 @@
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
       <c r="C162" s="36"/>
-      <c r="D162" s="33"/>
+      <c r="D162" s="8"/>
       <c r="E162" s="37"/>
       <c r="F162" s="37"/>
       <c r="G162" s="36"/>
@@ -6811,7 +6811,7 @@
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
       <c r="C163" s="36"/>
-      <c r="D163" s="33"/>
+      <c r="D163" s="8"/>
       <c r="E163" s="37"/>
       <c r="F163" s="37"/>
       <c r="G163" s="36"/>
@@ -6847,7 +6847,7 @@
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
       <c r="C164" s="36"/>
-      <c r="D164" s="33"/>
+      <c r="D164" s="8"/>
       <c r="E164" s="37"/>
       <c r="F164" s="37"/>
       <c r="G164" s="36"/>
@@ -6883,7 +6883,7 @@
       <c r="A165" s="36"/>
       <c r="B165" s="36"/>
       <c r="C165" s="36"/>
-      <c r="D165" s="33"/>
+      <c r="D165" s="8"/>
       <c r="E165" s="37"/>
       <c r="F165" s="37"/>
       <c r="G165" s="36"/>
@@ -6919,7 +6919,7 @@
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
-      <c r="D166" s="33"/>
+      <c r="D166" s="8"/>
       <c r="E166" s="37"/>
       <c r="F166" s="37"/>
       <c r="G166" s="36"/>
@@ -6955,7 +6955,7 @@
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
       <c r="C167" s="36"/>
-      <c r="D167" s="33"/>
+      <c r="D167" s="8"/>
       <c r="E167" s="37"/>
       <c r="F167" s="37"/>
       <c r="G167" s="36"/>
@@ -6991,7 +6991,7 @@
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
       <c r="C168" s="36"/>
-      <c r="D168" s="33"/>
+      <c r="D168" s="8"/>
       <c r="E168" s="37"/>
       <c r="F168" s="37"/>
       <c r="G168" s="36"/>
@@ -7027,7 +7027,7 @@
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
       <c r="C169" s="36"/>
-      <c r="D169" s="33"/>
+      <c r="D169" s="8"/>
       <c r="E169" s="37"/>
       <c r="F169" s="37"/>
       <c r="G169" s="36"/>
@@ -7063,7 +7063,7 @@
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
       <c r="C170" s="36"/>
-      <c r="D170" s="33"/>
+      <c r="D170" s="8"/>
       <c r="E170" s="37"/>
       <c r="F170" s="37"/>
       <c r="G170" s="36"/>
@@ -7099,7 +7099,7 @@
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
       <c r="C171" s="36"/>
-      <c r="D171" s="33"/>
+      <c r="D171" s="8"/>
       <c r="E171" s="37"/>
       <c r="F171" s="37"/>
       <c r="G171" s="36"/>
@@ -7135,7 +7135,7 @@
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
       <c r="C172" s="36"/>
-      <c r="D172" s="33"/>
+      <c r="D172" s="8"/>
       <c r="E172" s="37"/>
       <c r="F172" s="37"/>
       <c r="G172" s="36"/>
@@ -7171,7 +7171,7 @@
       <c r="A173" s="36"/>
       <c r="B173" s="36"/>
       <c r="C173" s="36"/>
-      <c r="D173" s="33"/>
+      <c r="D173" s="8"/>
       <c r="E173" s="37"/>
       <c r="F173" s="37"/>
       <c r="G173" s="36"/>
@@ -7207,7 +7207,7 @@
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
       <c r="C174" s="36"/>
-      <c r="D174" s="33"/>
+      <c r="D174" s="8"/>
       <c r="E174" s="37"/>
       <c r="F174" s="37"/>
       <c r="G174" s="36"/>
@@ -7243,7 +7243,7 @@
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
       <c r="C175" s="36"/>
-      <c r="D175" s="33"/>
+      <c r="D175" s="8"/>
       <c r="E175" s="37"/>
       <c r="F175" s="37"/>
       <c r="G175" s="36"/>
@@ -7279,7 +7279,7 @@
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
       <c r="C176" s="36"/>
-      <c r="D176" s="33"/>
+      <c r="D176" s="8"/>
       <c r="E176" s="37"/>
       <c r="F176" s="37"/>
       <c r="G176" s="36"/>
@@ -7315,7 +7315,7 @@
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
       <c r="C177" s="36"/>
-      <c r="D177" s="33"/>
+      <c r="D177" s="8"/>
       <c r="E177" s="37"/>
       <c r="F177" s="37"/>
       <c r="G177" s="36"/>
@@ -7351,7 +7351,7 @@
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
       <c r="C178" s="36"/>
-      <c r="D178" s="33"/>
+      <c r="D178" s="8"/>
       <c r="E178" s="37"/>
       <c r="F178" s="37"/>
       <c r="G178" s="36"/>
@@ -7387,7 +7387,7 @@
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
       <c r="C179" s="36"/>
-      <c r="D179" s="33"/>
+      <c r="D179" s="8"/>
       <c r="E179" s="37"/>
       <c r="F179" s="37"/>
       <c r="G179" s="36"/>
@@ -7423,7 +7423,7 @@
       <c r="A180" s="36"/>
       <c r="B180" s="36"/>
       <c r="C180" s="36"/>
-      <c r="D180" s="33"/>
+      <c r="D180" s="8"/>
       <c r="E180" s="37"/>
       <c r="F180" s="37"/>
       <c r="G180" s="36"/>
@@ -7459,7 +7459,7 @@
       <c r="A181" s="36"/>
       <c r="B181" s="36"/>
       <c r="C181" s="36"/>
-      <c r="D181" s="33"/>
+      <c r="D181" s="8"/>
       <c r="E181" s="37"/>
       <c r="F181" s="37"/>
       <c r="G181" s="36"/>
@@ -7495,7 +7495,7 @@
       <c r="A182" s="36"/>
       <c r="B182" s="36"/>
       <c r="C182" s="36"/>
-      <c r="D182" s="33"/>
+      <c r="D182" s="8"/>
       <c r="E182" s="37"/>
       <c r="F182" s="37"/>
       <c r="G182" s="36"/>
@@ -7531,7 +7531,7 @@
       <c r="A183" s="36"/>
       <c r="B183" s="36"/>
       <c r="C183" s="36"/>
-      <c r="D183" s="33"/>
+      <c r="D183" s="8"/>
       <c r="E183" s="37"/>
       <c r="F183" s="37"/>
       <c r="G183" s="36"/>
@@ -7567,7 +7567,7 @@
       <c r="A184" s="36"/>
       <c r="B184" s="36"/>
       <c r="C184" s="36"/>
-      <c r="D184" s="33"/>
+      <c r="D184" s="8"/>
       <c r="E184" s="37"/>
       <c r="F184" s="37"/>
       <c r="G184" s="36"/>
@@ -7603,7 +7603,7 @@
       <c r="A185" s="36"/>
       <c r="B185" s="36"/>
       <c r="C185" s="36"/>
-      <c r="D185" s="33"/>
+      <c r="D185" s="8"/>
       <c r="E185" s="37"/>
       <c r="F185" s="37"/>
       <c r="G185" s="36"/>
@@ -7639,7 +7639,7 @@
       <c r="A186" s="36"/>
       <c r="B186" s="36"/>
       <c r="C186" s="36"/>
-      <c r="D186" s="33"/>
+      <c r="D186" s="8"/>
       <c r="E186" s="37"/>
       <c r="F186" s="37"/>
       <c r="G186" s="36"/>
@@ -7675,7 +7675,7 @@
       <c r="A187" s="36"/>
       <c r="B187" s="36"/>
       <c r="C187" s="36"/>
-      <c r="D187" s="33"/>
+      <c r="D187" s="8"/>
       <c r="E187" s="37"/>
       <c r="F187" s="37"/>
       <c r="G187" s="36"/>
@@ -7711,7 +7711,7 @@
       <c r="A188" s="36"/>
       <c r="B188" s="36"/>
       <c r="C188" s="36"/>
-      <c r="D188" s="33"/>
+      <c r="D188" s="8"/>
       <c r="E188" s="37"/>
       <c r="F188" s="37"/>
       <c r="G188" s="36"/>
@@ -7747,7 +7747,7 @@
       <c r="A189" s="36"/>
       <c r="B189" s="36"/>
       <c r="C189" s="36"/>
-      <c r="D189" s="33"/>
+      <c r="D189" s="8"/>
       <c r="E189" s="37"/>
       <c r="F189" s="37"/>
       <c r="G189" s="36"/>
@@ -7783,7 +7783,7 @@
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
       <c r="C190" s="36"/>
-      <c r="D190" s="33"/>
+      <c r="D190" s="8"/>
       <c r="E190" s="37"/>
       <c r="F190" s="37"/>
       <c r="G190" s="36"/>
@@ -7819,7 +7819,7 @@
       <c r="A191" s="36"/>
       <c r="B191" s="36"/>
       <c r="C191" s="36"/>
-      <c r="D191" s="33"/>
+      <c r="D191" s="8"/>
       <c r="E191" s="37"/>
       <c r="F191" s="37"/>
       <c r="G191" s="36"/>
@@ -7855,7 +7855,7 @@
       <c r="A192" s="36"/>
       <c r="B192" s="36"/>
       <c r="C192" s="36"/>
-      <c r="D192" s="33"/>
+      <c r="D192" s="8"/>
       <c r="E192" s="37"/>
       <c r="F192" s="37"/>
       <c r="G192" s="36"/>
@@ -7891,7 +7891,7 @@
       <c r="A193" s="36"/>
       <c r="B193" s="36"/>
       <c r="C193" s="36"/>
-      <c r="D193" s="33"/>
+      <c r="D193" s="8"/>
       <c r="E193" s="37"/>
       <c r="F193" s="37"/>
       <c r="G193" s="36"/>
@@ -7927,7 +7927,7 @@
       <c r="A194" s="36"/>
       <c r="B194" s="36"/>
       <c r="C194" s="36"/>
-      <c r="D194" s="33"/>
+      <c r="D194" s="8"/>
       <c r="E194" s="37"/>
       <c r="F194" s="37"/>
       <c r="G194" s="36"/>
@@ -7963,7 +7963,7 @@
       <c r="A195" s="36"/>
       <c r="B195" s="36"/>
       <c r="C195" s="36"/>
-      <c r="D195" s="33"/>
+      <c r="D195" s="8"/>
       <c r="E195" s="37"/>
       <c r="F195" s="37"/>
       <c r="G195" s="36"/>
@@ -7999,7 +7999,7 @@
       <c r="A196" s="36"/>
       <c r="B196" s="36"/>
       <c r="C196" s="36"/>
-      <c r="D196" s="33"/>
+      <c r="D196" s="8"/>
       <c r="E196" s="37"/>
       <c r="F196" s="37"/>
       <c r="G196" s="36"/>
@@ -8018,7 +8018,7 @@
         <v>100</v>
       </c>
       <c r="T196" s="15">
-        <f t="shared" ref="T196:T251" si="11">+IF(D196="Cedula de Identidad",1,1)</f>
+        <f t="shared" ref="T196:T251" si="11">+IF(D196="Cédula de Identidad",1,1)</f>
         <v>1</v>
       </c>
       <c r="U196" s="16">
@@ -8035,7 +8035,7 @@
       <c r="A197" s="36"/>
       <c r="B197" s="36"/>
       <c r="C197" s="36"/>
-      <c r="D197" s="33"/>
+      <c r="D197" s="8"/>
       <c r="E197" s="37"/>
       <c r="F197" s="37"/>
       <c r="G197" s="36"/>
@@ -8071,7 +8071,7 @@
       <c r="A198" s="36"/>
       <c r="B198" s="36"/>
       <c r="C198" s="36"/>
-      <c r="D198" s="33"/>
+      <c r="D198" s="8"/>
       <c r="E198" s="37"/>
       <c r="F198" s="37"/>
       <c r="G198" s="36"/>
@@ -8107,7 +8107,7 @@
       <c r="A199" s="36"/>
       <c r="B199" s="36"/>
       <c r="C199" s="36"/>
-      <c r="D199" s="33"/>
+      <c r="D199" s="8"/>
       <c r="E199" s="37"/>
       <c r="F199" s="37"/>
       <c r="G199" s="36"/>
@@ -8143,7 +8143,7 @@
       <c r="A200" s="36"/>
       <c r="B200" s="36"/>
       <c r="C200" s="36"/>
-      <c r="D200" s="33"/>
+      <c r="D200" s="8"/>
       <c r="E200" s="37"/>
       <c r="F200" s="37"/>
       <c r="G200" s="36"/>
@@ -8179,7 +8179,7 @@
       <c r="A201" s="36"/>
       <c r="B201" s="36"/>
       <c r="C201" s="36"/>
-      <c r="D201" s="33"/>
+      <c r="D201" s="8"/>
       <c r="E201" s="37"/>
       <c r="F201" s="37"/>
       <c r="G201" s="36"/>
@@ -8215,7 +8215,7 @@
       <c r="A202" s="36"/>
       <c r="B202" s="36"/>
       <c r="C202" s="36"/>
-      <c r="D202" s="33"/>
+      <c r="D202" s="8"/>
       <c r="E202" s="37"/>
       <c r="F202" s="37"/>
       <c r="G202" s="36"/>
@@ -8251,7 +8251,7 @@
       <c r="A203" s="36"/>
       <c r="B203" s="36"/>
       <c r="C203" s="36"/>
-      <c r="D203" s="33"/>
+      <c r="D203" s="8"/>
       <c r="E203" s="37"/>
       <c r="F203" s="37"/>
       <c r="G203" s="36"/>
@@ -8287,7 +8287,7 @@
       <c r="A204" s="36"/>
       <c r="B204" s="36"/>
       <c r="C204" s="36"/>
-      <c r="D204" s="33"/>
+      <c r="D204" s="8"/>
       <c r="E204" s="37"/>
       <c r="F204" s="37"/>
       <c r="G204" s="36"/>
@@ -8323,7 +8323,7 @@
       <c r="A205" s="36"/>
       <c r="B205" s="36"/>
       <c r="C205" s="36"/>
-      <c r="D205" s="33"/>
+      <c r="D205" s="8"/>
       <c r="E205" s="37"/>
       <c r="F205" s="37"/>
       <c r="G205" s="36"/>
@@ -8359,7 +8359,7 @@
       <c r="A206" s="36"/>
       <c r="B206" s="36"/>
       <c r="C206" s="36"/>
-      <c r="D206" s="33"/>
+      <c r="D206" s="8"/>
       <c r="E206" s="37"/>
       <c r="F206" s="37"/>
       <c r="G206" s="36"/>
@@ -8395,7 +8395,7 @@
       <c r="A207" s="36"/>
       <c r="B207" s="36"/>
       <c r="C207" s="36"/>
-      <c r="D207" s="33"/>
+      <c r="D207" s="8"/>
       <c r="E207" s="37"/>
       <c r="F207" s="37"/>
       <c r="G207" s="36"/>
@@ -8431,7 +8431,7 @@
       <c r="A208" s="36"/>
       <c r="B208" s="36"/>
       <c r="C208" s="36"/>
-      <c r="D208" s="33"/>
+      <c r="D208" s="8"/>
       <c r="E208" s="37"/>
       <c r="F208" s="37"/>
       <c r="G208" s="36"/>
@@ -8467,7 +8467,7 @@
       <c r="A209" s="36"/>
       <c r="B209" s="36"/>
       <c r="C209" s="36"/>
-      <c r="D209" s="33"/>
+      <c r="D209" s="8"/>
       <c r="E209" s="37"/>
       <c r="F209" s="37"/>
       <c r="G209" s="36"/>
@@ -8503,7 +8503,7 @@
       <c r="A210" s="36"/>
       <c r="B210" s="36"/>
       <c r="C210" s="36"/>
-      <c r="D210" s="33"/>
+      <c r="D210" s="8"/>
       <c r="E210" s="37"/>
       <c r="F210" s="37"/>
       <c r="G210" s="36"/>
@@ -8539,7 +8539,7 @@
       <c r="A211" s="36"/>
       <c r="B211" s="36"/>
       <c r="C211" s="36"/>
-      <c r="D211" s="33"/>
+      <c r="D211" s="8"/>
       <c r="E211" s="37"/>
       <c r="F211" s="37"/>
       <c r="G211" s="36"/>
@@ -8575,7 +8575,7 @@
       <c r="A212" s="36"/>
       <c r="B212" s="36"/>
       <c r="C212" s="36"/>
-      <c r="D212" s="33"/>
+      <c r="D212" s="8"/>
       <c r="E212" s="37"/>
       <c r="F212" s="37"/>
       <c r="G212" s="36"/>
@@ -8611,7 +8611,7 @@
       <c r="A213" s="36"/>
       <c r="B213" s="36"/>
       <c r="C213" s="36"/>
-      <c r="D213" s="33"/>
+      <c r="D213" s="8"/>
       <c r="E213" s="37"/>
       <c r="F213" s="37"/>
       <c r="G213" s="36"/>
@@ -8647,7 +8647,7 @@
       <c r="A214" s="36"/>
       <c r="B214" s="36"/>
       <c r="C214" s="36"/>
-      <c r="D214" s="33"/>
+      <c r="D214" s="8"/>
       <c r="E214" s="37"/>
       <c r="F214" s="37"/>
       <c r="G214" s="36"/>
@@ -8683,7 +8683,7 @@
       <c r="A215" s="36"/>
       <c r="B215" s="36"/>
       <c r="C215" s="36"/>
-      <c r="D215" s="33"/>
+      <c r="D215" s="8"/>
       <c r="E215" s="37"/>
       <c r="F215" s="37"/>
       <c r="G215" s="36"/>
@@ -8719,7 +8719,7 @@
       <c r="A216" s="36"/>
       <c r="B216" s="36"/>
       <c r="C216" s="36"/>
-      <c r="D216" s="33"/>
+      <c r="D216" s="8"/>
       <c r="E216" s="37"/>
       <c r="F216" s="37"/>
       <c r="G216" s="36"/>
@@ -8755,7 +8755,7 @@
       <c r="A217" s="36"/>
       <c r="B217" s="36"/>
       <c r="C217" s="36"/>
-      <c r="D217" s="33"/>
+      <c r="D217" s="8"/>
       <c r="E217" s="37"/>
       <c r="F217" s="37"/>
       <c r="G217" s="36"/>
@@ -8791,7 +8791,7 @@
       <c r="A218" s="36"/>
       <c r="B218" s="36"/>
       <c r="C218" s="36"/>
-      <c r="D218" s="33"/>
+      <c r="D218" s="8"/>
       <c r="E218" s="37"/>
       <c r="F218" s="37"/>
       <c r="G218" s="36"/>
@@ -8827,7 +8827,7 @@
       <c r="A219" s="36"/>
       <c r="B219" s="36"/>
       <c r="C219" s="36"/>
-      <c r="D219" s="33"/>
+      <c r="D219" s="8"/>
       <c r="E219" s="37"/>
       <c r="F219" s="37"/>
       <c r="G219" s="36"/>
@@ -8863,7 +8863,7 @@
       <c r="A220" s="36"/>
       <c r="B220" s="36"/>
       <c r="C220" s="36"/>
-      <c r="D220" s="33"/>
+      <c r="D220" s="8"/>
       <c r="E220" s="37"/>
       <c r="F220" s="37"/>
       <c r="G220" s="36"/>
@@ -8899,7 +8899,7 @@
       <c r="A221" s="36"/>
       <c r="B221" s="36"/>
       <c r="C221" s="36"/>
-      <c r="D221" s="33"/>
+      <c r="D221" s="8"/>
       <c r="E221" s="37"/>
       <c r="F221" s="37"/>
       <c r="G221" s="36"/>
@@ -8935,7 +8935,7 @@
       <c r="A222" s="36"/>
       <c r="B222" s="36"/>
       <c r="C222" s="36"/>
-      <c r="D222" s="33"/>
+      <c r="D222" s="8"/>
       <c r="E222" s="37"/>
       <c r="F222" s="37"/>
       <c r="G222" s="36"/>
@@ -8971,7 +8971,7 @@
       <c r="A223" s="36"/>
       <c r="B223" s="36"/>
       <c r="C223" s="36"/>
-      <c r="D223" s="33"/>
+      <c r="D223" s="8"/>
       <c r="E223" s="37"/>
       <c r="F223" s="37"/>
       <c r="G223" s="36"/>
@@ -9007,7 +9007,7 @@
       <c r="A224" s="36"/>
       <c r="B224" s="36"/>
       <c r="C224" s="36"/>
-      <c r="D224" s="33"/>
+      <c r="D224" s="8"/>
       <c r="E224" s="37"/>
       <c r="F224" s="37"/>
       <c r="G224" s="36"/>
@@ -9043,7 +9043,7 @@
       <c r="A225" s="36"/>
       <c r="B225" s="36"/>
       <c r="C225" s="36"/>
-      <c r="D225" s="33"/>
+      <c r="D225" s="8"/>
       <c r="E225" s="37"/>
       <c r="F225" s="37"/>
       <c r="G225" s="36"/>
@@ -9079,7 +9079,7 @@
       <c r="A226" s="36"/>
       <c r="B226" s="36"/>
       <c r="C226" s="36"/>
-      <c r="D226" s="33"/>
+      <c r="D226" s="8"/>
       <c r="E226" s="37"/>
       <c r="F226" s="37"/>
       <c r="G226" s="36"/>
@@ -9115,7 +9115,7 @@
       <c r="A227" s="36"/>
       <c r="B227" s="36"/>
       <c r="C227" s="36"/>
-      <c r="D227" s="33"/>
+      <c r="D227" s="8"/>
       <c r="E227" s="37"/>
       <c r="F227" s="37"/>
       <c r="G227" s="36"/>
@@ -9151,7 +9151,7 @@
       <c r="A228" s="36"/>
       <c r="B228" s="36"/>
       <c r="C228" s="36"/>
-      <c r="D228" s="33"/>
+      <c r="D228" s="8"/>
       <c r="E228" s="37"/>
       <c r="F228" s="37"/>
       <c r="G228" s="36"/>
@@ -9187,7 +9187,7 @@
       <c r="A229" s="36"/>
       <c r="B229" s="36"/>
       <c r="C229" s="36"/>
-      <c r="D229" s="33"/>
+      <c r="D229" s="8"/>
       <c r="E229" s="37"/>
       <c r="F229" s="37"/>
       <c r="G229" s="36"/>
@@ -9223,7 +9223,7 @@
       <c r="A230" s="36"/>
       <c r="B230" s="36"/>
       <c r="C230" s="36"/>
-      <c r="D230" s="33"/>
+      <c r="D230" s="8"/>
       <c r="E230" s="37"/>
       <c r="F230" s="37"/>
       <c r="G230" s="36"/>
@@ -9259,7 +9259,7 @@
       <c r="A231" s="36"/>
       <c r="B231" s="36"/>
       <c r="C231" s="36"/>
-      <c r="D231" s="33"/>
+      <c r="D231" s="8"/>
       <c r="E231" s="37"/>
       <c r="F231" s="37"/>
       <c r="G231" s="36"/>
@@ -9295,7 +9295,7 @@
       <c r="A232" s="36"/>
       <c r="B232" s="36"/>
       <c r="C232" s="36"/>
-      <c r="D232" s="33"/>
+      <c r="D232" s="8"/>
       <c r="E232" s="37"/>
       <c r="F232" s="37"/>
       <c r="G232" s="36"/>
@@ -9331,7 +9331,7 @@
       <c r="A233" s="36"/>
       <c r="B233" s="36"/>
       <c r="C233" s="36"/>
-      <c r="D233" s="33"/>
+      <c r="D233" s="8"/>
       <c r="E233" s="37"/>
       <c r="F233" s="37"/>
       <c r="G233" s="36"/>
@@ -9367,7 +9367,7 @@
       <c r="A234" s="36"/>
       <c r="B234" s="36"/>
       <c r="C234" s="36"/>
-      <c r="D234" s="33"/>
+      <c r="D234" s="8"/>
       <c r="E234" s="37"/>
       <c r="F234" s="37"/>
       <c r="G234" s="36"/>
@@ -9403,7 +9403,7 @@
       <c r="A235" s="36"/>
       <c r="B235" s="36"/>
       <c r="C235" s="36"/>
-      <c r="D235" s="33"/>
+      <c r="D235" s="8"/>
       <c r="E235" s="37"/>
       <c r="F235" s="37"/>
       <c r="G235" s="36"/>
@@ -9439,7 +9439,7 @@
       <c r="A236" s="36"/>
       <c r="B236" s="36"/>
       <c r="C236" s="36"/>
-      <c r="D236" s="33"/>
+      <c r="D236" s="8"/>
       <c r="E236" s="37"/>
       <c r="F236" s="37"/>
       <c r="G236" s="36"/>
@@ -9475,7 +9475,7 @@
       <c r="A237" s="36"/>
       <c r="B237" s="36"/>
       <c r="C237" s="36"/>
-      <c r="D237" s="33"/>
+      <c r="D237" s="8"/>
       <c r="E237" s="37"/>
       <c r="F237" s="37"/>
       <c r="G237" s="36"/>
@@ -9511,7 +9511,7 @@
       <c r="A238" s="36"/>
       <c r="B238" s="36"/>
       <c r="C238" s="36"/>
-      <c r="D238" s="33"/>
+      <c r="D238" s="8"/>
       <c r="E238" s="37"/>
       <c r="F238" s="37"/>
       <c r="G238" s="36"/>
@@ -9547,7 +9547,7 @@
       <c r="A239" s="36"/>
       <c r="B239" s="36"/>
       <c r="C239" s="36"/>
-      <c r="D239" s="33"/>
+      <c r="D239" s="8"/>
       <c r="E239" s="37"/>
       <c r="F239" s="37"/>
       <c r="G239" s="36"/>
@@ -9583,7 +9583,7 @@
       <c r="A240" s="36"/>
       <c r="B240" s="36"/>
       <c r="C240" s="36"/>
-      <c r="D240" s="33"/>
+      <c r="D240" s="8"/>
       <c r="E240" s="37"/>
       <c r="F240" s="37"/>
       <c r="G240" s="36"/>
@@ -9619,7 +9619,7 @@
       <c r="A241" s="36"/>
       <c r="B241" s="36"/>
       <c r="C241" s="36"/>
-      <c r="D241" s="33"/>
+      <c r="D241" s="8"/>
       <c r="E241" s="37"/>
       <c r="F241" s="37"/>
       <c r="G241" s="36"/>
@@ -9655,7 +9655,7 @@
       <c r="A242" s="36"/>
       <c r="B242" s="36"/>
       <c r="C242" s="36"/>
-      <c r="D242" s="33"/>
+      <c r="D242" s="8"/>
       <c r="E242" s="37"/>
       <c r="F242" s="37"/>
       <c r="G242" s="36"/>
@@ -9691,7 +9691,7 @@
       <c r="A243" s="36"/>
       <c r="B243" s="36"/>
       <c r="C243" s="36"/>
-      <c r="D243" s="33"/>
+      <c r="D243" s="8"/>
       <c r="E243" s="37"/>
       <c r="F243" s="37"/>
       <c r="G243" s="36"/>
@@ -9727,7 +9727,7 @@
       <c r="A244" s="36"/>
       <c r="B244" s="36"/>
       <c r="C244" s="36"/>
-      <c r="D244" s="33"/>
+      <c r="D244" s="8"/>
       <c r="E244" s="37"/>
       <c r="F244" s="37"/>
       <c r="G244" s="36"/>
@@ -9763,7 +9763,7 @@
       <c r="A245" s="36"/>
       <c r="B245" s="36"/>
       <c r="C245" s="36"/>
-      <c r="D245" s="33"/>
+      <c r="D245" s="8"/>
       <c r="E245" s="37"/>
       <c r="F245" s="37"/>
       <c r="G245" s="36"/>
@@ -9799,7 +9799,7 @@
       <c r="A246" s="36"/>
       <c r="B246" s="36"/>
       <c r="C246" s="36"/>
-      <c r="D246" s="33"/>
+      <c r="D246" s="8"/>
       <c r="E246" s="37"/>
       <c r="F246" s="37"/>
       <c r="G246" s="36"/>
@@ -9835,7 +9835,7 @@
       <c r="A247" s="36"/>
       <c r="B247" s="36"/>
       <c r="C247" s="36"/>
-      <c r="D247" s="33"/>
+      <c r="D247" s="8"/>
       <c r="E247" s="37"/>
       <c r="F247" s="37"/>
       <c r="G247" s="36"/>
@@ -9871,7 +9871,7 @@
       <c r="A248" s="36"/>
       <c r="B248" s="36"/>
       <c r="C248" s="36"/>
-      <c r="D248" s="33"/>
+      <c r="D248" s="8"/>
       <c r="E248" s="37"/>
       <c r="F248" s="37"/>
       <c r="G248" s="36"/>
@@ -9907,7 +9907,7 @@
       <c r="A249" s="36"/>
       <c r="B249" s="36"/>
       <c r="C249" s="36"/>
-      <c r="D249" s="33"/>
+      <c r="D249" s="8"/>
       <c r="E249" s="37"/>
       <c r="F249" s="37"/>
       <c r="G249" s="36"/>
@@ -9943,7 +9943,7 @@
       <c r="A250" s="36"/>
       <c r="B250" s="36"/>
       <c r="C250" s="36"/>
-      <c r="D250" s="33"/>
+      <c r="D250" s="8"/>
       <c r="E250" s="37"/>
       <c r="F250" s="37"/>
       <c r="G250" s="36"/>
@@ -9979,7 +9979,7 @@
       <c r="A251" s="36"/>
       <c r="B251" s="36"/>
       <c r="C251" s="36"/>
-      <c r="D251" s="33"/>
+      <c r="D251" s="8"/>
       <c r="E251" s="37"/>
       <c r="F251" s="37"/>
       <c r="G251" s="36"/>
@@ -24977,11 +24977,11 @@
     <mergeCell ref="S1:V1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:D251" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Cedula de Identidad,Pasaporte,DIMEX,DIDI"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Guatemala,Honduras,Salvador,Nicaragua,Costa Rica,Panama,Otro ( por favor detallarlo directamente)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:D251" xr:uid="{D35468C1-B6D7-4B74-BB74-261D9AAFA616}">
+      <formula1>"Cédula de Identidad,Pasaporte,DIMEX,DIDI"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -24997,7 +24997,7 @@
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
